--- a/plastics/scenario_model/vensim_model_input_updated.xlsx
+++ b/plastics/scenario_model/vensim_model_input_updated.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlysaght/Desktop/ce_observatory_data_scripts/plastics/material_flows_baseline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlysaght/Desktop/ce_observatory_data_scripts/plastics/scenario_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7423B519-F3A3-6E49-9BED-3E388FDEB5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B1510-CDAC-0644-96E1-556E8EAF2408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{C849F713-86AF-1B48-B42B-115F8975BCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="absolute - all packaging" sheetId="3" r:id="rId1"/>
     <sheet name="rate" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="7" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -263,9 +263,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1003,7 +1004,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,6 +1078,8 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1458,7 +1461,7 @@
   <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3226,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD6E6E1-7B2C-244F-9C6B-84EC0AC71BB0}">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4105,6 +4108,24 @@
         <v>0.21374828691238354</v>
       </c>
     </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F28" s="57"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F30" s="22"/>
+      <c r="J30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F31" s="58"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plastics/scenario_model/vensim_model_input_updated.xlsx
+++ b/plastics/scenario_model/vensim_model_input_updated.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlysaght/Desktop/ce_observatory_data_scripts/plastics/scenario_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B1510-CDAC-0644-96E1-556E8EAF2408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FA1B36-B063-1446-90BE-0657A6D2689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{C849F713-86AF-1B48-B42B-115F8975BCF7}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{C849F713-86AF-1B48-B42B-115F8975BCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="absolute - all packaging" sheetId="3" r:id="rId1"/>
-    <sheet name="rate" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="absolute_pet" sheetId="8" r:id="rId2"/>
+    <sheet name="rate" sheetId="2" r:id="rId3"/>
+    <sheet name="rate_pet" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>variable</t>
   </si>
@@ -257,6 +259,39 @@
   </si>
   <si>
     <t>Stage total</t>
+  </si>
+  <si>
+    <t>Illegal collection</t>
+  </si>
+  <si>
+    <t>Sent for sorting</t>
+  </si>
+  <si>
+    <t>Dumped</t>
+  </si>
+  <si>
+    <t>Sent for residual</t>
+  </si>
+  <si>
+    <t>Total sent for legal domestic treatment</t>
+  </si>
+  <si>
+    <t>Sent for domestic recycling</t>
+  </si>
+  <si>
+    <t>Sent for overseas treatment</t>
+  </si>
+  <si>
+    <t>Recycling rejects</t>
+  </si>
+  <si>
+    <t>POM/WG</t>
+  </si>
+  <si>
+    <t>Total sent for formal domestic treatment</t>
+  </si>
+  <si>
+    <t>Sent for domestic residual treatment</t>
   </si>
 </sst>
 </file>
@@ -449,7 +484,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +691,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,7 +1057,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,6 +1133,16 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1458,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD6E3D0-4554-8C40-81F2-1D6AB1F47028}">
-  <dimension ref="A1:AF64"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="P4" sqref="P4:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,7 +1658,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="13">
-        <f t="shared" ref="B3:C3" si="0">B7*B35</f>
+        <f t="shared" ref="B3:C3" si="0">B8*B36</f>
         <v>1008164.5727343139</v>
       </c>
       <c r="C3" s="37">
@@ -1603,11 +1666,11 @@
         <v>892092.99363661325</v>
       </c>
       <c r="D3" s="44">
-        <f>D7*D35</f>
+        <f>D8*D36</f>
         <v>876474.65462605178</v>
       </c>
       <c r="E3" s="13">
-        <f t="shared" ref="E3:M3" si="1">E7*E35</f>
+        <f t="shared" ref="E3:M3" si="1">E8*E36</f>
         <v>904555.79720634012</v>
       </c>
       <c r="F3" s="13">
@@ -1667,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="15">
-        <f t="shared" ref="B4:C4" si="2">B7*B36</f>
+        <f t="shared" ref="B4:C4" si="2">B8*B37</f>
         <v>1535221.0272656863</v>
       </c>
       <c r="C4" s="38">
@@ -1675,11 +1738,11 @@
         <v>1358468.6063633871</v>
       </c>
       <c r="D4" s="46">
-        <f>D7*D36</f>
+        <f>D8*D37</f>
         <v>1334685.1853739482</v>
       </c>
       <c r="E4" s="15">
-        <f t="shared" ref="E4:M4" si="3">E7*E36</f>
+        <f t="shared" ref="E4:M4" si="3">E8*E37</f>
         <v>1346404.2027936599</v>
       </c>
       <c r="F4" s="15">
@@ -1769,977 +1832,1079 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="47"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="38">
-        <v>0</v>
-      </c>
-      <c r="D6" s="46">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="47">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B8" s="13">
         <f>B2-B5</f>
         <v>2543385.6000000001</v>
       </c>
-      <c r="C7" s="37">
-        <f t="shared" ref="C7:M7" si="5">C2-C5</f>
+      <c r="C8" s="37">
+        <f t="shared" ref="C8:M8" si="5">C2-C5</f>
         <v>2250561.6</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D8" s="44">
         <f t="shared" si="5"/>
         <v>2211159.84</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <f t="shared" si="5"/>
         <v>2250960</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <f t="shared" si="5"/>
         <v>2250960</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <f t="shared" si="5"/>
         <v>2250960</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <f t="shared" si="5"/>
         <v>2351556</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <f t="shared" si="5"/>
         <v>2462112</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J8" s="13">
         <f t="shared" si="5"/>
         <v>2480695.3679999998</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K8" s="13">
         <f t="shared" si="5"/>
         <v>2504302.56</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L8" s="13">
         <f t="shared" si="5"/>
         <v>2236020</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M8" s="45">
         <f t="shared" si="5"/>
         <v>2249964</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="46">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0</v>
-      </c>
-      <c r="M8" s="47">
-        <v>0</v>
-      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48">
-        <v>514437.4</v>
-      </c>
-      <c r="E9" s="18">
-        <v>563550.30000000005</v>
-      </c>
-      <c r="F9" s="18">
-        <v>684494.9</v>
-      </c>
-      <c r="G9" s="18">
-        <v>685895.6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>649562.19999999995</v>
-      </c>
-      <c r="I9" s="18">
-        <v>691878.40000000002</v>
-      </c>
-      <c r="J9" s="18">
-        <v>688221.6</v>
-      </c>
-      <c r="K9" s="18">
-        <v>519004.9</v>
-      </c>
-      <c r="L9" s="18">
-        <v>534794.9</v>
-      </c>
-      <c r="M9" s="49">
-        <v>611167.9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="47">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="38"/>
-      <c r="D10" s="42">
-        <v>328171.09999999998</v>
-      </c>
-      <c r="E10" s="11">
-        <v>327949.2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>331081.2</v>
-      </c>
-      <c r="G10" s="11">
-        <v>358708</v>
-      </c>
-      <c r="H10" s="11">
-        <v>388611.6</v>
-      </c>
-      <c r="I10" s="11">
-        <v>456682.8</v>
-      </c>
-      <c r="J10" s="11">
-        <v>529492.5</v>
-      </c>
-      <c r="K10" s="11">
-        <v>638992.4</v>
-      </c>
-      <c r="L10" s="11">
-        <v>651226.69999999995</v>
-      </c>
-      <c r="M10" s="43">
-        <v>602677.69999999995</v>
-      </c>
+      <c r="D10" s="48">
+        <v>514437.4</v>
+      </c>
+      <c r="E10" s="18">
+        <v>563550.30000000005</v>
+      </c>
+      <c r="F10" s="18">
+        <v>684494.9</v>
+      </c>
+      <c r="G10" s="18">
+        <v>685895.6</v>
+      </c>
+      <c r="H10" s="18">
+        <v>649562.19999999995</v>
+      </c>
+      <c r="I10" s="18">
+        <v>691878.40000000002</v>
+      </c>
+      <c r="J10" s="18">
+        <v>688221.6</v>
+      </c>
+      <c r="K10" s="18">
+        <v>519004.9</v>
+      </c>
+      <c r="L10" s="18">
+        <v>534794.9</v>
+      </c>
+      <c r="M10" s="49">
+        <v>611167.9</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="38"/>
-      <c r="D11" s="48">
-        <f>D7-D8-D9-D10-D13</f>
-        <v>1355231.0999999999</v>
-      </c>
-      <c r="E11" s="18">
-        <f t="shared" ref="E11:M11" si="6">E7-E8-E9-E10-E13</f>
-        <v>1345900.5</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="6"/>
-        <v>1221823.9000000001</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="6"/>
-        <v>1192796.3999999999</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="6"/>
-        <v>1299216.2000000002</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="6"/>
-        <v>1298718.8</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="6"/>
-        <v>1248037.3199999996</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="6"/>
-        <v>1331219.1000000003</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="6"/>
-        <v>1036528.4000000001</v>
-      </c>
-      <c r="M11" s="49">
-        <f t="shared" si="6"/>
-        <v>1022564.4000000001</v>
-      </c>
+      <c r="D11" s="42">
+        <v>328171.09999999998</v>
+      </c>
+      <c r="E11" s="11">
+        <v>327949.2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>331081.2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>358708</v>
+      </c>
+      <c r="H11" s="11">
+        <v>388611.6</v>
+      </c>
+      <c r="I11" s="11">
+        <v>456682.8</v>
+      </c>
+      <c r="J11" s="11">
+        <v>529492.5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>638992.4</v>
+      </c>
+      <c r="L11" s="11">
+        <v>651226.69999999995</v>
+      </c>
+      <c r="M11" s="43">
+        <v>602677.69999999995</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="38"/>
       <c r="D12" s="48">
-        <f>SUM(D10:D11)</f>
+        <f>D8-D9-D10-D11-D14</f>
+        <v>1355231.0999999999</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" ref="E12:M12" si="6">E8-E9-E10-E11-E14</f>
+        <v>1345900.5</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="6"/>
+        <v>1221823.9000000001</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="6"/>
+        <v>1192796.3999999999</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="6"/>
+        <v>1299216.2000000002</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="6"/>
+        <v>1298718.8</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="6"/>
+        <v>1248037.3199999996</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="6"/>
+        <v>1331219.1000000003</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="6"/>
+        <v>1036528.4000000001</v>
+      </c>
+      <c r="M12" s="49">
+        <f t="shared" si="6"/>
+        <v>1022564.4000000001</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48">
+        <f>SUM(D11:D12)</f>
         <v>1683402.1999999997</v>
       </c>
-      <c r="E12" s="18">
-        <f t="shared" ref="E12:M12" si="7">SUM(E10:E11)</f>
+      <c r="E13" s="18">
+        <f t="shared" ref="E13:M13" si="7">SUM(E11:E12)</f>
         <v>1673849.7</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F13" s="18">
         <f t="shared" si="7"/>
         <v>1552905.1</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G13" s="18">
         <f t="shared" si="7"/>
         <v>1551504.4</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="18">
         <f t="shared" si="7"/>
         <v>1687827.8000000003</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="18">
         <f t="shared" si="7"/>
         <v>1755401.6</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="18">
         <f t="shared" si="7"/>
         <v>1777529.8199999996</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K13" s="18">
         <f t="shared" si="7"/>
         <v>1970211.5000000005</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L13" s="18">
         <f t="shared" si="7"/>
         <v>1687755.1</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M13" s="49">
         <f t="shared" si="7"/>
         <v>1625242.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B14" s="15">
         <f>B2*0.006</f>
         <v>15321.6</v>
       </c>
-      <c r="C13" s="38">
-        <f t="shared" ref="C13:M13" si="8">C2*0.006</f>
+      <c r="C14" s="38">
+        <f t="shared" ref="C14:M14" si="8">C2*0.006</f>
         <v>13557.6</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D14" s="46">
         <f t="shared" si="8"/>
         <v>13320.24</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <f t="shared" si="8"/>
         <v>13560</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <f t="shared" si="8"/>
         <v>13560</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="15">
         <f t="shared" si="8"/>
         <v>13560</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="15">
         <f t="shared" si="8"/>
         <v>14166</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="15">
         <f t="shared" si="8"/>
         <v>14832</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="15">
         <f t="shared" si="8"/>
         <v>14943.948</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K14" s="15">
         <f t="shared" si="8"/>
         <v>15086.16</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L14" s="15">
         <f t="shared" si="8"/>
         <v>13470</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M14" s="47">
         <f t="shared" si="8"/>
         <v>13554</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="13">
-        <f>B8+B9+B12+B13</f>
+      <c r="B15" s="13">
+        <f>B9+B10+B13+B14</f>
         <v>15321.6</v>
       </c>
-      <c r="C14" s="13">
-        <f t="shared" ref="C14:E14" si="9">C8+C9+C12+C13</f>
+      <c r="C15" s="13">
+        <f t="shared" ref="C15:E15" si="9">C9+C10+C13+C14</f>
         <v>13557.6</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <f t="shared" si="9"/>
         <v>2211159.84</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <f t="shared" si="9"/>
         <v>2250960</v>
       </c>
-      <c r="F14" s="13">
-        <f t="shared" ref="F14" si="10">F8+F9+F12+F13</f>
+      <c r="F15" s="13">
+        <f t="shared" ref="F15" si="10">F9+F10+F13+F14</f>
         <v>2250960</v>
       </c>
-      <c r="G14" s="13">
-        <f t="shared" ref="G14:H14" si="11">G8+G9+G12+G13</f>
+      <c r="G15" s="13">
+        <f t="shared" ref="G15:H15" si="11">G9+G10+G13+G14</f>
         <v>2250960</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <f t="shared" si="11"/>
         <v>2351556</v>
       </c>
-      <c r="I14" s="13">
-        <f t="shared" ref="I14" si="12">I8+I9+I12+I13</f>
+      <c r="I15" s="13">
+        <f t="shared" ref="I15" si="12">I9+I10+I13+I14</f>
         <v>2462112</v>
       </c>
-      <c r="J14" s="13">
-        <f t="shared" ref="J14:K14" si="13">J8+J9+J12+J13</f>
+      <c r="J15" s="13">
+        <f t="shared" ref="J15:K15" si="13">J9+J10+J13+J14</f>
         <v>2480695.3679999993</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="13">
         <f t="shared" si="13"/>
         <v>2504302.5600000005</v>
       </c>
-      <c r="L14" s="13">
-        <f t="shared" ref="L14" si="14">L8+L9+L12+L13</f>
+      <c r="L15" s="13">
+        <f t="shared" ref="L15" si="14">L9+L10+L13+L14</f>
         <v>2236020</v>
       </c>
-      <c r="M14" s="13">
-        <f t="shared" ref="M14" si="15">M8+M9+M12+M13</f>
+      <c r="M15" s="13">
+        <f t="shared" ref="M15" si="15">M9+M10+M13+M14</f>
         <v>2249964</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="46">
-        <f>D10</f>
-        <v>328171.09999999998</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" ref="E15:M15" si="16">E10</f>
-        <v>327949.2</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" si="16"/>
-        <v>331081.2</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="16"/>
-        <v>358708</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" si="16"/>
-        <v>388611.6</v>
-      </c>
-      <c r="I15" s="15">
-        <f t="shared" si="16"/>
-        <v>456682.8</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="16"/>
-        <v>529492.5</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="16"/>
-        <v>638992.4</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" si="16"/>
-        <v>651226.69999999995</v>
-      </c>
-      <c r="M15" s="47">
-        <f t="shared" si="16"/>
-        <v>602677.69999999995</v>
-      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="38"/>
       <c r="D16" s="46">
         <f>D11</f>
+        <v>328171.09999999998</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16:M16" si="16">E11</f>
+        <v>327949.2</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="16"/>
+        <v>331081.2</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="16"/>
+        <v>358708</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="16"/>
+        <v>388611.6</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="16"/>
+        <v>456682.8</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="16"/>
+        <v>529492.5</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="16"/>
+        <v>638992.4</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="16"/>
+        <v>651226.69999999995</v>
+      </c>
+      <c r="M16" s="47">
+        <f t="shared" si="16"/>
+        <v>602677.69999999995</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="46">
+        <f>D12</f>
         <v>1355231.0999999999</v>
       </c>
-      <c r="E16" s="15">
-        <f t="shared" ref="E16:M16" si="17">E11</f>
+      <c r="E17" s="15">
+        <f t="shared" ref="E17:M17" si="17">E12</f>
         <v>1345900.5</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F17" s="15">
         <f t="shared" si="17"/>
         <v>1221823.9000000001</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G17" s="15">
         <f t="shared" si="17"/>
         <v>1192796.3999999999</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H17" s="15">
         <f t="shared" si="17"/>
         <v>1299216.2000000002</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I17" s="15">
         <f t="shared" si="17"/>
         <v>1298718.8</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J17" s="15">
         <f t="shared" si="17"/>
         <v>1248037.3199999996</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K17" s="15">
         <f t="shared" si="17"/>
         <v>1331219.1000000003</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L17" s="15">
         <f t="shared" si="17"/>
         <v>1036528.4000000001</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M17" s="47">
         <f t="shared" si="17"/>
         <v>1022564.4000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="44">
-        <f>SUM(D15:D16)</f>
+      <c r="B18" s="13"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="44">
+        <f>SUM(D16:D17)</f>
         <v>1683402.1999999997</v>
       </c>
-      <c r="E17" s="44">
-        <f t="shared" ref="E17:M17" si="18">SUM(E15:E16)</f>
+      <c r="E18" s="44">
+        <f t="shared" ref="E18:M18" si="18">SUM(E16:E17)</f>
         <v>1673849.7</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F18" s="44">
         <f t="shared" si="18"/>
         <v>1552905.1</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G18" s="44">
         <f t="shared" si="18"/>
         <v>1551504.4</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H18" s="44">
         <f t="shared" si="18"/>
         <v>1687827.8000000003</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I18" s="44">
         <f t="shared" si="18"/>
         <v>1755401.6</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J18" s="44">
         <f t="shared" si="18"/>
         <v>1777529.8199999996</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K18" s="44">
         <f t="shared" si="18"/>
         <v>1970211.5000000005</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L18" s="44">
         <f t="shared" si="18"/>
         <v>1687755.1</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M18" s="44">
         <f t="shared" si="18"/>
         <v>1625242.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="15">
-        <v>0</v>
-      </c>
-      <c r="C18" s="38">
-        <v>0</v>
-      </c>
-      <c r="D18" s="46">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38">
+        <v>0</v>
+      </c>
+      <c r="D19" s="46">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="47">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="42">
-        <v>327751.40000000002</v>
-      </c>
-      <c r="E19" s="11">
-        <v>327590.59999999998</v>
-      </c>
-      <c r="F19" s="11">
-        <v>330731</v>
-      </c>
-      <c r="G19" s="11">
-        <v>358467.4</v>
-      </c>
-      <c r="H19" s="11">
-        <v>384847.8</v>
-      </c>
-      <c r="I19" s="11">
-        <v>449437.4</v>
-      </c>
-      <c r="J19" s="11">
-        <v>486254.1</v>
-      </c>
-      <c r="K19" s="11">
-        <v>592783</v>
-      </c>
-      <c r="L19" s="11">
-        <v>618750.19999999995</v>
-      </c>
-      <c r="M19" s="43">
-        <v>575285.5</v>
-      </c>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="46">
-        <f>D10-D19</f>
+      <c r="D20" s="42">
+        <v>327751.40000000002</v>
+      </c>
+      <c r="E20" s="11">
+        <v>327590.59999999998</v>
+      </c>
+      <c r="F20" s="11">
+        <v>330731</v>
+      </c>
+      <c r="G20" s="11">
+        <v>358467.4</v>
+      </c>
+      <c r="H20" s="11">
+        <v>384847.8</v>
+      </c>
+      <c r="I20" s="11">
+        <v>449437.4</v>
+      </c>
+      <c r="J20" s="11">
+        <v>486254.1</v>
+      </c>
+      <c r="K20" s="11">
+        <v>592783</v>
+      </c>
+      <c r="L20" s="11">
+        <v>618750.19999999995</v>
+      </c>
+      <c r="M20" s="43">
+        <v>575285.5</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="46">
+        <f>D11-D20</f>
         <v>419.69999999995343</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" ref="E20:M20" si="19">E10-E19</f>
+      <c r="E21" s="15">
+        <f t="shared" ref="E21:M21" si="19">E11-E20</f>
         <v>358.60000000003492</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="15">
         <f t="shared" si="19"/>
         <v>350.20000000001164</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="15">
         <f t="shared" si="19"/>
         <v>240.59999999997672</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="15">
         <f t="shared" si="19"/>
         <v>3763.7999999999884</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I21" s="15">
         <f t="shared" si="19"/>
         <v>7245.3999999999651</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J21" s="15">
         <f t="shared" si="19"/>
         <v>43238.400000000023</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K21" s="15">
         <f t="shared" si="19"/>
         <v>46209.400000000023</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L21" s="15">
         <f t="shared" si="19"/>
         <v>32476.5</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M21" s="47">
         <f t="shared" si="19"/>
         <v>27392.199999999953</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="R21" s="10"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="13">
-        <f>SUM(B18:B20)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
-        <f t="shared" ref="C21:M21" si="20">SUM(C18:C20)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="B22" s="13">
+        <f>SUM(B19:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" ref="C22:M22" si="20">SUM(C19:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
         <f t="shared" si="20"/>
         <v>328171.09999999998</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <f t="shared" si="20"/>
         <v>327949.2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <f t="shared" si="20"/>
         <v>331081.2</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <f t="shared" si="20"/>
         <v>358708</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <f t="shared" si="20"/>
         <v>388611.6</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <f t="shared" si="20"/>
         <v>456682.8</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="13">
         <f t="shared" si="20"/>
         <v>529492.5</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="13">
         <f t="shared" si="20"/>
         <v>638992.4</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L22" s="13">
         <f t="shared" si="20"/>
         <v>651226.69999999995</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M22" s="13">
         <f t="shared" si="20"/>
         <v>602677.69999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="R22" s="10"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>4</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15">
-        <f>D25*Sheet6!G3</f>
-        <v>189535.55057962798</v>
-      </c>
-      <c r="E22" s="15">
-        <f>E25*Sheet6!H3</f>
-        <v>206554.54830521901</v>
-      </c>
-      <c r="F22" s="15">
-        <f>F25*Sheet6!I3</f>
-        <v>160780.45610521748</v>
-      </c>
-      <c r="G22" s="15">
-        <f>G25*Sheet6!J3</f>
-        <v>169807.20778594405</v>
-      </c>
-      <c r="H22" s="15">
-        <f>H25*Sheet6!K3</f>
-        <v>211090.58711641</v>
-      </c>
-      <c r="I22" s="15">
-        <f>I25*Sheet6!L3</f>
-        <v>243355.57422722096</v>
-      </c>
-      <c r="J22" s="15">
-        <f>J25*Sheet6!M3</f>
-        <v>291960.22544685227</v>
-      </c>
-      <c r="K22" s="15">
-        <f>K25*Sheet6!N3</f>
-        <v>328100.31344254222</v>
-      </c>
-      <c r="L22" s="15">
-        <f>L25*Sheet6!O3</f>
-        <v>246077.2468112763</v>
-      </c>
-      <c r="M22" s="15">
-        <f>M25*Sheet6!P3</f>
-        <v>233336.18805000008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15">
-        <f>Sheet6!F2*'absolute - all packaging'!D25</f>
-        <v>924826.49524658453</v>
+        <f>D26*Sheet6!G3</f>
+        <v>189535.55057962798</v>
       </c>
       <c r="E23" s="15">
-        <f>Sheet6!G2*'absolute - all packaging'!E25</f>
-        <v>902312.53209179069</v>
+        <f>E26*Sheet6!H3</f>
+        <v>206554.54830521901</v>
       </c>
       <c r="F23" s="15">
-        <f>Sheet6!H2*'absolute - all packaging'!F25</f>
-        <v>630953.55026826065</v>
+        <f>F26*Sheet6!I3</f>
+        <v>160780.45610521748</v>
       </c>
       <c r="G23" s="15">
-        <f>Sheet6!I2*'absolute - all packaging'!G25</f>
-        <v>595955.47127619036</v>
+        <f>G26*Sheet6!J3</f>
+        <v>169807.20778594405</v>
       </c>
       <c r="H23" s="15">
-        <f>Sheet6!J2*'absolute - all packaging'!H25</f>
-        <v>665120.38036008866</v>
+        <f>H26*Sheet6!K3</f>
+        <v>211090.58711641</v>
       </c>
       <c r="I23" s="15">
-        <f>Sheet6!K2*'absolute - all packaging'!I25</f>
-        <v>685888.89553527033</v>
+        <f>I26*Sheet6!L3</f>
+        <v>243355.57422722096</v>
       </c>
       <c r="J23" s="15">
-        <f>Sheet6!L2*'absolute - all packaging'!J25</f>
-        <v>738075.39371578477</v>
+        <f>J26*Sheet6!M3</f>
+        <v>291960.22544685227</v>
       </c>
       <c r="K23" s="15">
-        <f>Sheet6!M2*'absolute - all packaging'!K25</f>
-        <v>799127.48822753003</v>
+        <f>K26*Sheet6!N3</f>
+        <v>328100.31344254222</v>
       </c>
       <c r="L23" s="15">
-        <f>Sheet6!N2*'absolute - all packaging'!L25</f>
-        <v>593763.26112609147</v>
+        <f>L26*Sheet6!O3</f>
+        <v>246077.2468112763</v>
       </c>
       <c r="M23" s="15">
-        <f>Sheet6!O2*'absolute - all packaging'!M25</f>
-        <v>568396.32217677985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <f>M26*Sheet6!P3</f>
+        <v>233336.18805000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="18">
-        <v>255660.755</v>
-      </c>
-      <c r="E24" s="18">
-        <v>255660.755</v>
-      </c>
-      <c r="F24" s="18">
-        <v>443389.86</v>
-      </c>
-      <c r="G24" s="18">
-        <v>441708.67499999999</v>
-      </c>
-      <c r="H24" s="18">
-        <v>439796.8</v>
-      </c>
-      <c r="I24" s="18">
-        <v>389510.06</v>
-      </c>
-      <c r="J24" s="18">
-        <v>240210.61999999997</v>
-      </c>
-      <c r="K24" s="18">
-        <v>206174.06999999998</v>
-      </c>
-      <c r="L24" s="18">
-        <v>198314.16499999998</v>
-      </c>
-      <c r="M24" s="18">
-        <v>217956.85500000001</v>
-      </c>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="15">
+        <f>Sheet6!F2*'absolute - all packaging'!D26</f>
+        <v>924826.49524658453</v>
+      </c>
+      <c r="E24" s="15">
+        <f>Sheet6!G2*'absolute - all packaging'!E26</f>
+        <v>902312.53209179069</v>
+      </c>
+      <c r="F24" s="15">
+        <f>Sheet6!H2*'absolute - all packaging'!F26</f>
+        <v>630953.55026826065</v>
+      </c>
+      <c r="G24" s="15">
+        <f>Sheet6!I2*'absolute - all packaging'!G26</f>
+        <v>595955.47127619036</v>
+      </c>
+      <c r="H24" s="15">
+        <f>Sheet6!J2*'absolute - all packaging'!H26</f>
+        <v>665120.38036008866</v>
+      </c>
+      <c r="I24" s="15">
+        <f>Sheet6!K2*'absolute - all packaging'!I26</f>
+        <v>685888.89553527033</v>
+      </c>
+      <c r="J24" s="15">
+        <f>Sheet6!L2*'absolute - all packaging'!J26</f>
+        <v>738075.39371578477</v>
+      </c>
+      <c r="K24" s="15">
+        <f>Sheet6!M2*'absolute - all packaging'!K26</f>
+        <v>799127.48822753003</v>
+      </c>
+      <c r="L24" s="15">
+        <f>Sheet6!N2*'absolute - all packaging'!L26</f>
+        <v>593763.26112609147</v>
+      </c>
+      <c r="M24" s="15">
+        <f>Sheet6!O2*'absolute - all packaging'!M26</f>
+        <v>568396.32217677985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="15">
-        <f t="shared" ref="D25:M25" si="21">D16-D24</f>
-        <v>1099570.3449999997</v>
-      </c>
-      <c r="E25" s="15">
-        <f t="shared" si="21"/>
-        <v>1090239.7450000001</v>
-      </c>
-      <c r="F25" s="15">
-        <f t="shared" si="21"/>
-        <v>778434.04000000015</v>
-      </c>
-      <c r="G25" s="15">
-        <f t="shared" si="21"/>
-        <v>751087.72499999986</v>
-      </c>
-      <c r="H25" s="15">
-        <f t="shared" si="21"/>
-        <v>859419.40000000014</v>
-      </c>
-      <c r="I25" s="15">
-        <f t="shared" si="21"/>
-        <v>909208.74</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="21"/>
-        <v>1007826.6999999996</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="21"/>
-        <v>1125045.0300000003</v>
-      </c>
-      <c r="L25" s="15">
-        <f t="shared" si="21"/>
-        <v>838214.2350000001</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" si="21"/>
-        <v>804607.54500000016</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
-        <v>73</v>
+      <c r="D25" s="18">
+        <v>255660.755</v>
+      </c>
+      <c r="E25" s="18">
+        <v>255660.755</v>
+      </c>
+      <c r="F25" s="18">
+        <v>443389.86</v>
+      </c>
+      <c r="G25" s="18">
+        <v>441708.67499999999</v>
+      </c>
+      <c r="H25" s="18">
+        <v>439796.8</v>
+      </c>
+      <c r="I25" s="18">
+        <v>389510.06</v>
+      </c>
+      <c r="J25" s="18">
+        <v>240210.61999999997</v>
+      </c>
+      <c r="K25" s="18">
+        <v>206174.06999999998</v>
+      </c>
+      <c r="L25" s="18">
+        <v>198314.16499999998</v>
+      </c>
+      <c r="M25" s="18">
+        <v>217956.85500000001</v>
+      </c>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <f>SUM(D22:D24)</f>
+        <f t="shared" ref="D26:M26" si="21">D17-D25</f>
+        <v>1099570.3449999997</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="21"/>
+        <v>1090239.7450000001</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="21"/>
+        <v>778434.04000000015</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="21"/>
+        <v>751087.72499999986</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="21"/>
+        <v>859419.40000000014</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="21"/>
+        <v>909208.74</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="21"/>
+        <v>1007826.6999999996</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="21"/>
+        <v>1125045.0300000003</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="21"/>
+        <v>838214.2350000001</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="21"/>
+        <v>804607.54500000016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15">
+        <f>SUM(D23:D25)</f>
         <v>1370022.8008262124</v>
       </c>
-      <c r="E26" s="15">
-        <f>SUM(E22:E24)</f>
+      <c r="E27" s="15">
+        <f>SUM(E23:E25)</f>
         <v>1364527.8353970097</v>
       </c>
-      <c r="F26" s="15">
-        <f t="shared" ref="F26:M26" si="22">SUM(F22:F24)</f>
+      <c r="F27" s="15">
+        <f t="shared" ref="F27:M27" si="22">SUM(F23:F25)</f>
         <v>1235123.866373478</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G27" s="15">
         <f t="shared" si="22"/>
         <v>1207471.3540621344</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="15">
         <f t="shared" si="22"/>
         <v>1316007.7674764986</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I27" s="15">
         <f t="shared" si="22"/>
         <v>1318754.5297624914</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="15">
         <f t="shared" si="22"/>
         <v>1270246.2391626369</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K27" s="15">
         <f t="shared" si="22"/>
         <v>1333401.8716700722</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L27" s="15">
         <f t="shared" si="22"/>
         <v>1038154.6729373678</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M27" s="15">
         <f t="shared" si="22"/>
         <v>1019689.3652267799</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -2748,20 +2913,16 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2774,7 +2935,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -2814,114 +2975,115 @@
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="35">
-        <f>C35</f>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="35">
+        <f>C36</f>
         <v>0.39638683679514181</v>
       </c>
-      <c r="C35" s="35">
-        <f>D35</f>
+      <c r="C36" s="35">
+        <f>D36</f>
         <v>0.39638683679514181</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D36" s="34">
         <v>0.39638683679514181</v>
       </c>
-      <c r="E35" s="34">
-        <f>SUM(D35+F35)/2</f>
+      <c r="E36" s="34">
+        <f>SUM(D36+F36)/2</f>
         <v>0.40185334133273809</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F36" s="34">
         <v>0.40731984587033432</v>
       </c>
-      <c r="G35" s="34">
-        <f>SUM(F35+H35)/2</f>
+      <c r="G36" s="34">
+        <f>SUM(F36+H36)/2</f>
         <v>0.39099301695650557</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H36" s="34">
         <v>0.37466618804267687</v>
       </c>
-      <c r="I35" s="34">
-        <f>SUM(H35+J35)/2</f>
+      <c r="I36" s="34">
+        <f>SUM(H36+J36)/2</f>
         <v>0.40104902554150945</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J36" s="34">
         <v>0.42743186304034197</v>
       </c>
-      <c r="K35" s="34">
-        <f>SUM(J35+L35)/2</f>
+      <c r="K36" s="34">
+        <f>SUM(J36+L36)/2</f>
         <v>0.41914305893657361</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L36" s="34">
         <v>0.41085425483280524</v>
       </c>
-      <c r="M35" s="23">
-        <f>L35</f>
+      <c r="M36" s="23">
+        <f>L36</f>
         <v>0.41085425483280524</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="36">
-        <f t="shared" ref="B36:C36" si="23">1-B35</f>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="36">
+        <f t="shared" ref="B37:C37" si="23">1-B36</f>
         <v>0.60361316320485825</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C37" s="36">
         <f t="shared" si="23"/>
         <v>0.60361316320485825</v>
       </c>
-      <c r="D36" s="36">
-        <f>1-D35</f>
+      <c r="D37" s="36">
+        <f>1-D36</f>
         <v>0.60361316320485825</v>
       </c>
-      <c r="E36" s="36">
-        <f t="shared" ref="E36:L36" si="24">1-E35</f>
+      <c r="E37" s="36">
+        <f t="shared" ref="E37:L37" si="24">1-E36</f>
         <v>0.59814665866726191</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F37" s="36">
         <f t="shared" si="24"/>
         <v>0.59268015412966568</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G37" s="36">
         <f t="shared" si="24"/>
         <v>0.60900698304349443</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H37" s="36">
         <f t="shared" si="24"/>
         <v>0.62533381195732307</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I37" s="36">
         <f t="shared" si="24"/>
         <v>0.59895097445849055</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J37" s="36">
         <f t="shared" si="24"/>
         <v>0.57256813695965803</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K37" s="36">
         <f t="shared" si="24"/>
         <v>0.58085694106342634</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L37" s="36">
         <f t="shared" si="24"/>
         <v>0.58914574516719476</v>
       </c>
-      <c r="M36" s="23">
-        <f>L36</f>
+      <c r="M37" s="23">
+        <f>L37</f>
         <v>0.58914574516719476</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
@@ -2958,6 +3120,7 @@
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -3221,6 +3384,17 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
     </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3228,11 +3402,1125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0126ADF6-763A-0A41-8612-AA80D1C8A599}">
+  <dimension ref="A1:U27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39">
+        <v>2014</v>
+      </c>
+      <c r="C1" s="40">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="40">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="40">
+        <v>2017</v>
+      </c>
+      <c r="F1" s="40">
+        <v>2018</v>
+      </c>
+      <c r="G1" s="40">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="40">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="40">
+        <v>2021</v>
+      </c>
+      <c r="J1" s="40">
+        <v>2022</v>
+      </c>
+      <c r="K1" s="41">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="11">
+        <v>642098.1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>653655.6</v>
+      </c>
+      <c r="D2" s="11">
+        <v>653655.6</v>
+      </c>
+      <c r="E2" s="11">
+        <v>653655.6</v>
+      </c>
+      <c r="F2" s="11">
+        <v>707385.3</v>
+      </c>
+      <c r="G2" s="11">
+        <v>767097.9</v>
+      </c>
+      <c r="H2" s="11">
+        <v>748247.4</v>
+      </c>
+      <c r="I2" s="11">
+        <v>729719.6</v>
+      </c>
+      <c r="J2" s="11">
+        <v>744377.7</v>
+      </c>
+      <c r="K2" s="11">
+        <v>749019.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11">
+        <v>242811.3</v>
+      </c>
+      <c r="C3" s="11">
+        <v>251137.4</v>
+      </c>
+      <c r="D3" s="11">
+        <v>253999.6</v>
+      </c>
+      <c r="E3" s="11">
+        <v>240604.1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>252841.8</v>
+      </c>
+      <c r="G3" s="11">
+        <v>289761.3</v>
+      </c>
+      <c r="H3" s="11">
+        <v>305112.8</v>
+      </c>
+      <c r="I3" s="11">
+        <v>301671.59999999998</v>
+      </c>
+      <c r="J3" s="11">
+        <v>291762.5</v>
+      </c>
+      <c r="K3" s="11">
+        <v>293582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11">
+        <v>369750.2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>372450</v>
+      </c>
+      <c r="D4" s="11">
+        <v>369587.9</v>
+      </c>
+      <c r="E4" s="11">
+        <v>382983.4</v>
+      </c>
+      <c r="F4" s="11">
+        <v>422003.7</v>
+      </c>
+      <c r="G4" s="11">
+        <v>442050.1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>408715.2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>394480.9</v>
+      </c>
+      <c r="J4" s="11">
+        <v>418373.8</v>
+      </c>
+      <c r="K4" s="11">
+        <v>420982.8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>25683.919999999998</v>
+      </c>
+      <c r="C5" s="11">
+        <v>26146.23</v>
+      </c>
+      <c r="D5" s="11">
+        <v>26146.23</v>
+      </c>
+      <c r="E5" s="11">
+        <v>26146.23</v>
+      </c>
+      <c r="F5" s="11">
+        <v>28295.41</v>
+      </c>
+      <c r="G5" s="11">
+        <v>30683.919999999998</v>
+      </c>
+      <c r="H5" s="11">
+        <v>29929.9</v>
+      </c>
+      <c r="I5" s="11">
+        <v>29188.78</v>
+      </c>
+      <c r="J5" s="11">
+        <v>29775.11</v>
+      </c>
+      <c r="K5" s="11">
+        <v>29960.79</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3921.9340000000002</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3921.9340000000002</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3921.9340000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4244.3119999999999</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4602.5870000000004</v>
+      </c>
+      <c r="H6" s="11">
+        <v>4489.4840000000004</v>
+      </c>
+      <c r="I6" s="11">
+        <v>4378.3180000000002</v>
+      </c>
+      <c r="J6" s="11">
+        <v>4466.2659999999996</v>
+      </c>
+      <c r="K6" s="11">
+        <v>4494.1180000000004</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="47">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="44">
+        <f>B2-B5</f>
+        <v>616414.17999999993</v>
+      </c>
+      <c r="C8" s="44">
+        <f t="shared" ref="C8:K8" si="0">C2-C5</f>
+        <v>627509.37</v>
+      </c>
+      <c r="D8" s="44">
+        <f t="shared" si="0"/>
+        <v>627509.37</v>
+      </c>
+      <c r="E8" s="44">
+        <f t="shared" si="0"/>
+        <v>627509.37</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" si="0"/>
+        <v>679089.89</v>
+      </c>
+      <c r="G8" s="44">
+        <f t="shared" si="0"/>
+        <v>736413.98</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="0"/>
+        <v>718317.5</v>
+      </c>
+      <c r="I8" s="44">
+        <f t="shared" si="0"/>
+        <v>700530.82</v>
+      </c>
+      <c r="J8" s="44">
+        <f t="shared" si="0"/>
+        <v>714602.59</v>
+      </c>
+      <c r="K8" s="44">
+        <f t="shared" si="0"/>
+        <v>719058.90999999992</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="47">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="11">
+        <v>280406.5</v>
+      </c>
+      <c r="C10" s="11">
+        <v>295398.7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>333122.59999999998</v>
+      </c>
+      <c r="E10" s="11">
+        <v>344404.5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>344761.59999999998</v>
+      </c>
+      <c r="G10" s="11">
+        <v>377478.8</v>
+      </c>
+      <c r="H10" s="11">
+        <v>447116</v>
+      </c>
+      <c r="I10" s="11">
+        <v>423298.9</v>
+      </c>
+      <c r="J10" s="11">
+        <v>436580.7</v>
+      </c>
+      <c r="K10" s="11">
+        <v>475902.8</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="11">
+        <v>332155</v>
+      </c>
+      <c r="C11" s="11">
+        <v>328188.7</v>
+      </c>
+      <c r="D11" s="11">
+        <v>290464.90000000002</v>
+      </c>
+      <c r="E11" s="11">
+        <v>279183</v>
+      </c>
+      <c r="F11" s="11">
+        <v>330084</v>
+      </c>
+      <c r="G11" s="11">
+        <v>354332.6</v>
+      </c>
+      <c r="H11" s="11">
+        <v>266712</v>
+      </c>
+      <c r="I11" s="11">
+        <v>272853.59999999998</v>
+      </c>
+      <c r="J11" s="11">
+        <v>273555.59999999998</v>
+      </c>
+      <c r="K11" s="11">
+        <v>238662</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="48">
+        <f>SUM(B10:B11)</f>
+        <v>612561.5</v>
+      </c>
+      <c r="C12" s="48">
+        <f t="shared" ref="C12:K12" si="1">SUM(C10:C11)</f>
+        <v>623587.4</v>
+      </c>
+      <c r="D12" s="48">
+        <f t="shared" si="1"/>
+        <v>623587.5</v>
+      </c>
+      <c r="E12" s="48">
+        <f t="shared" si="1"/>
+        <v>623587.5</v>
+      </c>
+      <c r="F12" s="48">
+        <f t="shared" si="1"/>
+        <v>674845.6</v>
+      </c>
+      <c r="G12" s="48">
+        <f t="shared" si="1"/>
+        <v>731811.39999999991</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>713828</v>
+      </c>
+      <c r="I12" s="48">
+        <f t="shared" si="1"/>
+        <v>696152.5</v>
+      </c>
+      <c r="J12" s="48">
+        <f t="shared" si="1"/>
+        <v>710136.3</v>
+      </c>
+      <c r="K12" s="48">
+        <f t="shared" si="1"/>
+        <v>714564.8</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="C13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="D13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="E13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="F13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="G13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="H13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="I13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="J13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="K13" s="46">
+        <v>3852.5880000000002</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="13">
+        <f>SUM(B9,B12)</f>
+        <v>612561.5</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:K14" si="2">SUM(C9,C12)</f>
+        <v>623587.4</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="2"/>
+        <v>623587.5</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="2"/>
+        <v>623587.5</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="2"/>
+        <v>674845.6</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="2"/>
+        <v>731811.39999999991</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="2"/>
+        <v>713828</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="2"/>
+        <v>696152.5</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="2"/>
+        <v>710136.3</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="2"/>
+        <v>714564.8</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="11">
+        <v>153683.5</v>
+      </c>
+      <c r="C15" s="11">
+        <v>167164.4</v>
+      </c>
+      <c r="D15" s="11">
+        <v>200676.1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>202180.7</v>
+      </c>
+      <c r="F15" s="11">
+        <v>194458.6</v>
+      </c>
+      <c r="G15" s="11">
+        <v>198189.8</v>
+      </c>
+      <c r="H15" s="11">
+        <v>249340.79999999999</v>
+      </c>
+      <c r="I15" s="11">
+        <v>178794</v>
+      </c>
+      <c r="J15" s="11">
+        <v>166686.6</v>
+      </c>
+      <c r="K15" s="11">
+        <v>221897.1</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="11">
+        <v>97864.99</v>
+      </c>
+      <c r="C16" s="11">
+        <v>97833.32</v>
+      </c>
+      <c r="D16" s="11">
+        <v>98163.08</v>
+      </c>
+      <c r="E16" s="11">
+        <v>106779.4</v>
+      </c>
+      <c r="F16" s="11">
+        <v>114821.75999999999</v>
+      </c>
+      <c r="G16" s="11">
+        <v>140440.74</v>
+      </c>
+      <c r="H16" s="11">
+        <v>151760.20000000001</v>
+      </c>
+      <c r="I16" s="11">
+        <v>200941.07</v>
+      </c>
+      <c r="J16" s="11">
+        <v>224963.35</v>
+      </c>
+      <c r="K16" s="11">
+        <v>205028.05</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="11">
+        <v>28858.1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>30401.02</v>
+      </c>
+      <c r="D17" s="11">
+        <v>34283.379999999997</v>
+      </c>
+      <c r="E17" s="11">
+        <v>35444.47</v>
+      </c>
+      <c r="F17" s="11">
+        <v>35481.21</v>
+      </c>
+      <c r="G17" s="11">
+        <v>38848.31</v>
+      </c>
+      <c r="H17" s="11">
+        <v>46015.040000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>43563.9</v>
+      </c>
+      <c r="J17" s="11">
+        <v>44930.8</v>
+      </c>
+      <c r="K17" s="11">
+        <v>48977.64</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="44">
+        <f>SUM(B15:B17)</f>
+        <v>280406.58999999997</v>
+      </c>
+      <c r="C18" s="44">
+        <f t="shared" ref="C18:K18" si="3">SUM(C15:C17)</f>
+        <v>295398.74</v>
+      </c>
+      <c r="D18" s="44">
+        <f t="shared" si="3"/>
+        <v>333122.56</v>
+      </c>
+      <c r="E18" s="44">
+        <f t="shared" si="3"/>
+        <v>344404.56999999995</v>
+      </c>
+      <c r="F18" s="44">
+        <f t="shared" si="3"/>
+        <v>344761.57</v>
+      </c>
+      <c r="G18" s="44">
+        <f t="shared" si="3"/>
+        <v>377478.85</v>
+      </c>
+      <c r="H18" s="44">
+        <f t="shared" si="3"/>
+        <v>447116.04</v>
+      </c>
+      <c r="I18" s="44">
+        <f t="shared" si="3"/>
+        <v>423298.97000000003</v>
+      </c>
+      <c r="J18" s="44">
+        <f t="shared" si="3"/>
+        <v>436580.75</v>
+      </c>
+      <c r="K18" s="44">
+        <f t="shared" si="3"/>
+        <v>475902.79000000004</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="46">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="47">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11">
+        <v>97864.99</v>
+      </c>
+      <c r="C20" s="11">
+        <v>97833.32</v>
+      </c>
+      <c r="D20" s="11">
+        <v>98163.08</v>
+      </c>
+      <c r="E20" s="11">
+        <v>106779.4</v>
+      </c>
+      <c r="F20" s="11">
+        <v>114821.75999999999</v>
+      </c>
+      <c r="G20" s="11">
+        <v>140440.74</v>
+      </c>
+      <c r="H20" s="11">
+        <v>151760.20000000001</v>
+      </c>
+      <c r="I20" s="11">
+        <v>200941.07</v>
+      </c>
+      <c r="J20" s="11">
+        <v>224963.35</v>
+      </c>
+      <c r="K20" s="11">
+        <v>205028.05</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="13">
+        <f>SUM(B19:B20)</f>
+        <v>97864.99</v>
+      </c>
+      <c r="C21" s="13">
+        <f>SUM(C19:C20)</f>
+        <v>97833.32</v>
+      </c>
+      <c r="D21" s="13">
+        <f>SUM(D19:D20)</f>
+        <v>98163.08</v>
+      </c>
+      <c r="E21" s="13">
+        <f>SUM(E19:E20)</f>
+        <v>106779.4</v>
+      </c>
+      <c r="F21" s="13">
+        <f>SUM(F19:F20)</f>
+        <v>114821.75999999999</v>
+      </c>
+      <c r="G21" s="13">
+        <f>SUM(G19:G20)</f>
+        <v>140440.74</v>
+      </c>
+      <c r="H21" s="13">
+        <f>SUM(H19:H20)</f>
+        <v>151760.20000000001</v>
+      </c>
+      <c r="I21" s="13">
+        <f>SUM(I19:I20)</f>
+        <v>200941.07</v>
+      </c>
+      <c r="J21" s="13">
+        <f>SUM(J19:J20)</f>
+        <v>224963.35</v>
+      </c>
+      <c r="K21" s="13">
+        <f>SUM(K19:K20)</f>
+        <v>205028.05</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11">
+        <v>332155</v>
+      </c>
+      <c r="C22" s="11">
+        <v>328188.7</v>
+      </c>
+      <c r="D22" s="11">
+        <v>290464.90000000002</v>
+      </c>
+      <c r="E22" s="11">
+        <v>279183</v>
+      </c>
+      <c r="F22" s="11">
+        <v>330084</v>
+      </c>
+      <c r="G22" s="11">
+        <v>354332.6</v>
+      </c>
+      <c r="H22" s="11">
+        <v>266712</v>
+      </c>
+      <c r="I22" s="11">
+        <v>272853.59999999998</v>
+      </c>
+      <c r="J22" s="11">
+        <v>273555.59999999998</v>
+      </c>
+      <c r="K22" s="11">
+        <v>238662</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11">
+        <v>182932.8</v>
+      </c>
+      <c r="C23" s="11">
+        <v>211138.1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>206559.1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>215379.4</v>
+      </c>
+      <c r="F23" s="11">
+        <v>264923.09999999998</v>
+      </c>
+      <c r="G23" s="11">
+        <v>298648.8</v>
+      </c>
+      <c r="H23" s="11">
+        <v>229583.7</v>
+      </c>
+      <c r="I23" s="11">
+        <v>233173</v>
+      </c>
+      <c r="J23" s="11">
+        <v>238626</v>
+      </c>
+      <c r="K23" s="11">
+        <v>208187.9</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11">
+        <v>149222.26999999999</v>
+      </c>
+      <c r="C24" s="11">
+        <v>117050.64</v>
+      </c>
+      <c r="D24" s="11">
+        <v>83905.78</v>
+      </c>
+      <c r="E24" s="11">
+        <v>63803.6</v>
+      </c>
+      <c r="F24" s="11">
+        <v>65160.91</v>
+      </c>
+      <c r="G24" s="11">
+        <v>55683.77</v>
+      </c>
+      <c r="H24" s="11">
+        <v>37128.25</v>
+      </c>
+      <c r="I24" s="11">
+        <v>39680.61</v>
+      </c>
+      <c r="J24" s="11">
+        <v>34929.57</v>
+      </c>
+      <c r="K24" s="11">
+        <v>30474.11</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="15">
+        <f>SUM(B23:B24)</f>
+        <v>332155.06999999995</v>
+      </c>
+      <c r="C25" s="15">
+        <f>SUM(C23:C24)</f>
+        <v>328188.74</v>
+      </c>
+      <c r="D25" s="15">
+        <f>SUM(D23:D24)</f>
+        <v>290464.88</v>
+      </c>
+      <c r="E25" s="15">
+        <f>SUM(E23:E24)</f>
+        <v>279183</v>
+      </c>
+      <c r="F25" s="15">
+        <f>SUM(F23:F24)</f>
+        <v>330084.01</v>
+      </c>
+      <c r="G25" s="15">
+        <f>SUM(G23:G24)</f>
+        <v>354332.57</v>
+      </c>
+      <c r="H25" s="15">
+        <f>SUM(H23:H24)</f>
+        <v>266711.95</v>
+      </c>
+      <c r="I25" s="15">
+        <f>SUM(I23:I24)</f>
+        <v>272853.61</v>
+      </c>
+      <c r="J25" s="15">
+        <f>SUM(J23:J24)</f>
+        <v>273555.57</v>
+      </c>
+      <c r="K25" s="15">
+        <f>SUM(K23:K24)</f>
+        <v>238662.01</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD6E6E1-7B2C-244F-9C6B-84EC0AC71BB0}">
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3364,43 +4652,43 @@
         <v>0</v>
       </c>
       <c r="D3" s="50">
-        <f>'absolute - all packaging'!B6/'absolute - all packaging'!B2</f>
+        <f>'absolute - all packaging'!B7/'absolute - all packaging'!B2</f>
         <v>0</v>
       </c>
       <c r="E3" s="50">
-        <f>'absolute - all packaging'!C6/'absolute - all packaging'!C2</f>
+        <f>'absolute - all packaging'!C7/'absolute - all packaging'!C2</f>
         <v>0</v>
       </c>
       <c r="F3" s="50">
-        <f>'absolute - all packaging'!D6/'absolute - all packaging'!D2</f>
+        <f>'absolute - all packaging'!D7/'absolute - all packaging'!D2</f>
         <v>0</v>
       </c>
       <c r="G3" s="50">
-        <f>'absolute - all packaging'!E6/'absolute - all packaging'!E2</f>
+        <f>'absolute - all packaging'!E7/'absolute - all packaging'!E2</f>
         <v>0</v>
       </c>
       <c r="H3" s="50">
-        <f>'absolute - all packaging'!F6/'absolute - all packaging'!F2</f>
+        <f>'absolute - all packaging'!F7/'absolute - all packaging'!F2</f>
         <v>0</v>
       </c>
       <c r="I3" s="50">
-        <f>'absolute - all packaging'!G6/'absolute - all packaging'!G2</f>
+        <f>'absolute - all packaging'!G7/'absolute - all packaging'!G2</f>
         <v>0</v>
       </c>
       <c r="J3" s="50">
-        <f>'absolute - all packaging'!H6/'absolute - all packaging'!H2</f>
+        <f>'absolute - all packaging'!H7/'absolute - all packaging'!H2</f>
         <v>0</v>
       </c>
       <c r="K3" s="50">
-        <f>'absolute - all packaging'!I6/'absolute - all packaging'!I2</f>
+        <f>'absolute - all packaging'!I7/'absolute - all packaging'!I2</f>
         <v>0</v>
       </c>
       <c r="L3" s="50">
-        <f>'absolute - all packaging'!J6/'absolute - all packaging'!J2</f>
+        <f>'absolute - all packaging'!J7/'absolute - all packaging'!J2</f>
         <v>0</v>
       </c>
       <c r="M3" s="50">
-        <f>'absolute - all packaging'!K6/'absolute - all packaging'!K2</f>
+        <f>'absolute - all packaging'!K7/'absolute - all packaging'!K2</f>
         <v>0</v>
       </c>
     </row>
@@ -3517,43 +4805,43 @@
         <v>0.23265500335787578</v>
       </c>
       <c r="D6" s="50">
-        <f>'absolute - all packaging'!D9/'absolute - all packaging'!D14</f>
+        <f>'absolute - all packaging'!D10/'absolute - all packaging'!D15</f>
         <v>0.23265500335787578</v>
       </c>
       <c r="E6" s="50">
-        <f>'absolute - all packaging'!E9/'absolute - all packaging'!E14</f>
+        <f>'absolute - all packaging'!E10/'absolute - all packaging'!E15</f>
         <v>0.25035997974197677</v>
       </c>
       <c r="F6" s="50">
-        <f>'absolute - all packaging'!F9/'absolute - all packaging'!F14</f>
+        <f>'absolute - all packaging'!F10/'absolute - all packaging'!F15</f>
         <v>0.3040902103991186</v>
       </c>
       <c r="G6" s="50">
-        <f>'absolute - all packaging'!G9/'absolute - all packaging'!G14</f>
+        <f>'absolute - all packaging'!G10/'absolute - all packaging'!G15</f>
         <v>0.3047124782315101</v>
       </c>
       <c r="H6" s="50">
-        <f>'absolute - all packaging'!H9/'absolute - all packaging'!H14</f>
+        <f>'absolute - all packaging'!H10/'absolute - all packaging'!H15</f>
         <v>0.27622654956973169</v>
       </c>
       <c r="I6" s="50">
-        <f>'absolute - all packaging'!I9/'absolute - all packaging'!I14</f>
+        <f>'absolute - all packaging'!I10/'absolute - all packaging'!I15</f>
         <v>0.28101012464095865</v>
       </c>
       <c r="J6" s="50">
-        <f>'absolute - all packaging'!J9/'absolute - all packaging'!J14</f>
+        <f>'absolute - all packaging'!J10/'absolute - all packaging'!J15</f>
         <v>0.27743092073206149</v>
       </c>
       <c r="K6" s="50">
-        <f>'absolute - all packaging'!K9/'absolute - all packaging'!K14</f>
+        <f>'absolute - all packaging'!K10/'absolute - all packaging'!K15</f>
         <v>0.20724528588909796</v>
       </c>
       <c r="L6" s="50">
-        <f>'absolute - all packaging'!L9/'absolute - all packaging'!L14</f>
+        <f>'absolute - all packaging'!L10/'absolute - all packaging'!L15</f>
         <v>0.23917268181858839</v>
       </c>
       <c r="M6" s="50">
-        <f>'absolute - all packaging'!M9/'absolute - all packaging'!M14</f>
+        <f>'absolute - all packaging'!M10/'absolute - all packaging'!M15</f>
         <v>0.27163452393016069</v>
       </c>
     </row>
@@ -3568,43 +4856,43 @@
         <v>0.76132090025658206</v>
       </c>
       <c r="D7" s="50">
-        <f>'absolute - all packaging'!D12/'absolute - all packaging'!D14</f>
+        <f>'absolute - all packaging'!D13/'absolute - all packaging'!D15</f>
         <v>0.76132090025658206</v>
       </c>
       <c r="E7" s="50">
-        <f>'absolute - all packaging'!E12/'absolute - all packaging'!E14</f>
+        <f>'absolute - all packaging'!E13/'absolute - all packaging'!E15</f>
         <v>0.7436159238724811</v>
       </c>
       <c r="F7" s="50">
-        <f>'absolute - all packaging'!F12/'absolute - all packaging'!F14</f>
+        <f>'absolute - all packaging'!F13/'absolute - all packaging'!F15</f>
         <v>0.68988569321533932</v>
       </c>
       <c r="G7" s="50">
-        <f>'absolute - all packaging'!G12/'absolute - all packaging'!G14</f>
+        <f>'absolute - all packaging'!G13/'absolute - all packaging'!G15</f>
         <v>0.68926342538294771</v>
       </c>
       <c r="H7" s="50">
-        <f>'absolute - all packaging'!H12/'absolute - all packaging'!H14</f>
+        <f>'absolute - all packaging'!H13/'absolute - all packaging'!H15</f>
         <v>0.71774935404472628</v>
       </c>
       <c r="I7" s="50">
-        <f>'absolute - all packaging'!I12/'absolute - all packaging'!I14</f>
+        <f>'absolute - all packaging'!I13/'absolute - all packaging'!I15</f>
         <v>0.71296577897349922</v>
       </c>
       <c r="J7" s="50">
-        <f>'absolute - all packaging'!J12/'absolute - all packaging'!J14</f>
+        <f>'absolute - all packaging'!J13/'absolute - all packaging'!J15</f>
         <v>0.71654498288239643</v>
       </c>
       <c r="K7" s="50">
-        <f>'absolute - all packaging'!K12/'absolute - all packaging'!K14</f>
+        <f>'absolute - all packaging'!K13/'absolute - all packaging'!K15</f>
         <v>0.7867306177253599</v>
       </c>
       <c r="L7" s="50">
-        <f>'absolute - all packaging'!L12/'absolute - all packaging'!L14</f>
+        <f>'absolute - all packaging'!L13/'absolute - all packaging'!L15</f>
         <v>0.75480322179586945</v>
       </c>
       <c r="M7" s="50">
-        <f>'absolute - all packaging'!M12/'absolute - all packaging'!M14</f>
+        <f>'absolute - all packaging'!M13/'absolute - all packaging'!M15</f>
         <v>0.72234137968429724</v>
       </c>
     </row>
@@ -3619,43 +4907,43 @@
         <v>6.024096385542169E-3</v>
       </c>
       <c r="D8" s="50">
-        <f>'absolute - all packaging'!D13/'absolute - all packaging'!D14</f>
+        <f>'absolute - all packaging'!D14/'absolute - all packaging'!D15</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E8" s="50">
-        <f>'absolute - all packaging'!E13/'absolute - all packaging'!E14</f>
+        <f>'absolute - all packaging'!E14/'absolute - all packaging'!E15</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="F8" s="50">
-        <f>'absolute - all packaging'!F13/'absolute - all packaging'!F14</f>
+        <f>'absolute - all packaging'!F14/'absolute - all packaging'!F15</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="G8" s="50">
-        <f>'absolute - all packaging'!G13/'absolute - all packaging'!G14</f>
+        <f>'absolute - all packaging'!G14/'absolute - all packaging'!G15</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="H8" s="50">
-        <f>'absolute - all packaging'!H13/'absolute - all packaging'!H14</f>
+        <f>'absolute - all packaging'!H14/'absolute - all packaging'!H15</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="I8" s="50">
-        <f>'absolute - all packaging'!I13/'absolute - all packaging'!I14</f>
+        <f>'absolute - all packaging'!I14/'absolute - all packaging'!I15</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="J8" s="50">
-        <f>'absolute - all packaging'!J13/'absolute - all packaging'!J14</f>
+        <f>'absolute - all packaging'!J14/'absolute - all packaging'!J15</f>
         <v>6.0240963855421707E-3</v>
       </c>
       <c r="K8" s="50">
-        <f>'absolute - all packaging'!K13/'absolute - all packaging'!K14</f>
+        <f>'absolute - all packaging'!K14/'absolute - all packaging'!K15</f>
         <v>6.0240963855421673E-3</v>
       </c>
       <c r="L8" s="50">
-        <f>'absolute - all packaging'!L13/'absolute - all packaging'!L14</f>
+        <f>'absolute - all packaging'!L14/'absolute - all packaging'!L15</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="M8" s="50">
-        <f>'absolute - all packaging'!M13/'absolute - all packaging'!M14</f>
+        <f>'absolute - all packaging'!M14/'absolute - all packaging'!M15</f>
         <v>6.024096385542169E-3</v>
       </c>
     </row>
@@ -3711,43 +4999,43 @@
         <v>0.19494515333293494</v>
       </c>
       <c r="D10" s="50">
-        <f>'absolute - all packaging'!D15/'absolute - all packaging'!D17</f>
+        <f>'absolute - all packaging'!D16/'absolute - all packaging'!D18</f>
         <v>0.19494515333293494</v>
       </c>
       <c r="E10" s="50">
-        <f>'absolute - all packaging'!E15/'absolute - all packaging'!E17</f>
+        <f>'absolute - all packaging'!E16/'absolute - all packaging'!E18</f>
         <v>0.19592511800790718</v>
       </c>
       <c r="F10" s="50">
-        <f>'absolute - all packaging'!F15/'absolute - all packaging'!F17</f>
+        <f>'absolute - all packaging'!F16/'absolute - all packaging'!F18</f>
         <v>0.21320118016226491</v>
       </c>
       <c r="G10" s="50">
-        <f>'absolute - all packaging'!G15/'absolute - all packaging'!G17</f>
+        <f>'absolute - all packaging'!G16/'absolute - all packaging'!G18</f>
         <v>0.23120011776956612</v>
       </c>
       <c r="H10" s="50">
-        <f>'absolute - all packaging'!H15/'absolute - all packaging'!H17</f>
+        <f>'absolute - all packaging'!H16/'absolute - all packaging'!H18</f>
         <v>0.23024363030399186</v>
       </c>
       <c r="I10" s="50">
-        <f>'absolute - all packaging'!I15/'absolute - all packaging'!I17</f>
+        <f>'absolute - all packaging'!I16/'absolute - all packaging'!I18</f>
         <v>0.26015858707204093</v>
       </c>
       <c r="J10" s="50">
-        <f>'absolute - all packaging'!J15/'absolute - all packaging'!J17</f>
+        <f>'absolute - all packaging'!J16/'absolute - all packaging'!J18</f>
         <v>0.29788107858578716</v>
       </c>
       <c r="K10" s="50">
-        <f>'absolute - all packaging'!K15/'absolute - all packaging'!K17</f>
+        <f>'absolute - all packaging'!K16/'absolute - all packaging'!K18</f>
         <v>0.32432680450804385</v>
       </c>
       <c r="L10" s="50">
-        <f>'absolute - all packaging'!L15/'absolute - all packaging'!L17</f>
+        <f>'absolute - all packaging'!L16/'absolute - all packaging'!L18</f>
         <v>0.38585378885834792</v>
       </c>
       <c r="M10" s="50">
-        <f>'absolute - all packaging'!M15/'absolute - all packaging'!M17</f>
+        <f>'absolute - all packaging'!M16/'absolute - all packaging'!M18</f>
         <v>0.3708233376430502</v>
       </c>
     </row>
@@ -3762,43 +5050,43 @@
         <v>0.80505484666706517</v>
       </c>
       <c r="D11" s="50">
-        <f>'absolute - all packaging'!D16/'absolute - all packaging'!D17</f>
+        <f>'absolute - all packaging'!D17/'absolute - all packaging'!D18</f>
         <v>0.80505484666706517</v>
       </c>
       <c r="E11" s="50">
-        <f>'absolute - all packaging'!E16/'absolute - all packaging'!E17</f>
+        <f>'absolute - all packaging'!E17/'absolute - all packaging'!E18</f>
         <v>0.80407488199209287</v>
       </c>
       <c r="F11" s="50">
-        <f>'absolute - all packaging'!F16/'absolute - all packaging'!F17</f>
+        <f>'absolute - all packaging'!F17/'absolute - all packaging'!F18</f>
         <v>0.78679881983773514</v>
       </c>
       <c r="G11" s="50">
-        <f>'absolute - all packaging'!G16/'absolute - all packaging'!G17</f>
+        <f>'absolute - all packaging'!G17/'absolute - all packaging'!G18</f>
         <v>0.76879988223043383</v>
       </c>
       <c r="H11" s="50">
-        <f>'absolute - all packaging'!H16/'absolute - all packaging'!H17</f>
+        <f>'absolute - all packaging'!H17/'absolute - all packaging'!H18</f>
         <v>0.76975636969600802</v>
       </c>
       <c r="I11" s="50">
-        <f>'absolute - all packaging'!I16/'absolute - all packaging'!I17</f>
+        <f>'absolute - all packaging'!I17/'absolute - all packaging'!I18</f>
         <v>0.73984141292795902</v>
       </c>
       <c r="J11" s="50">
-        <f>'absolute - all packaging'!J16/'absolute - all packaging'!J17</f>
+        <f>'absolute - all packaging'!J17/'absolute - all packaging'!J18</f>
         <v>0.70211892141421284</v>
       </c>
       <c r="K11" s="50">
-        <f>'absolute - all packaging'!K16/'absolute - all packaging'!K17</f>
+        <f>'absolute - all packaging'!K17/'absolute - all packaging'!K18</f>
         <v>0.67567319549195604</v>
       </c>
       <c r="L11" s="50">
-        <f>'absolute - all packaging'!L16/'absolute - all packaging'!L17</f>
+        <f>'absolute - all packaging'!L17/'absolute - all packaging'!L18</f>
         <v>0.61414621114165202</v>
       </c>
       <c r="M11" s="50">
-        <f>'absolute - all packaging'!M16/'absolute - all packaging'!M17</f>
+        <f>'absolute - all packaging'!M17/'absolute - all packaging'!M18</f>
         <v>0.6291766623569498</v>
       </c>
     </row>
@@ -3813,43 +5101,43 @@
         <v>0</v>
       </c>
       <c r="D12" s="50">
-        <f>'absolute - all packaging'!D18/'absolute - all packaging'!D21</f>
+        <f>'absolute - all packaging'!D19/'absolute - all packaging'!D22</f>
         <v>0</v>
       </c>
       <c r="E12" s="50">
-        <f>'absolute - all packaging'!E18/'absolute - all packaging'!E21</f>
+        <f>'absolute - all packaging'!E19/'absolute - all packaging'!E22</f>
         <v>0</v>
       </c>
       <c r="F12" s="50">
-        <f>'absolute - all packaging'!F18/'absolute - all packaging'!F21</f>
+        <f>'absolute - all packaging'!F19/'absolute - all packaging'!F22</f>
         <v>0</v>
       </c>
       <c r="G12" s="50">
-        <f>'absolute - all packaging'!G18/'absolute - all packaging'!G21</f>
+        <f>'absolute - all packaging'!G19/'absolute - all packaging'!G22</f>
         <v>0</v>
       </c>
       <c r="H12" s="50">
-        <f>'absolute - all packaging'!H18/'absolute - all packaging'!H21</f>
+        <f>'absolute - all packaging'!H19/'absolute - all packaging'!H22</f>
         <v>0</v>
       </c>
       <c r="I12" s="50">
-        <f>'absolute - all packaging'!I18/'absolute - all packaging'!I21</f>
+        <f>'absolute - all packaging'!I19/'absolute - all packaging'!I22</f>
         <v>0</v>
       </c>
       <c r="J12" s="50">
-        <f>'absolute - all packaging'!J18/'absolute - all packaging'!J21</f>
+        <f>'absolute - all packaging'!J19/'absolute - all packaging'!J22</f>
         <v>0</v>
       </c>
       <c r="K12" s="50">
-        <f>'absolute - all packaging'!K18/'absolute - all packaging'!K21</f>
+        <f>'absolute - all packaging'!K19/'absolute - all packaging'!K22</f>
         <v>0</v>
       </c>
       <c r="L12" s="50">
-        <f>'absolute - all packaging'!L18/'absolute - all packaging'!L21</f>
+        <f>'absolute - all packaging'!L19/'absolute - all packaging'!L22</f>
         <v>0</v>
       </c>
       <c r="M12" s="50">
-        <f>'absolute - all packaging'!M18/'absolute - all packaging'!M21</f>
+        <f>'absolute - all packaging'!M19/'absolute - all packaging'!M22</f>
         <v>0</v>
       </c>
     </row>
@@ -3864,43 +5152,43 @@
         <v>0.99872109396592224</v>
       </c>
       <c r="D13" s="50">
-        <f>'absolute - all packaging'!D19/'absolute - all packaging'!D21</f>
+        <f>'absolute - all packaging'!D20/'absolute - all packaging'!D22</f>
         <v>0.99872109396592224</v>
       </c>
       <c r="E13" s="50">
-        <f>'absolute - all packaging'!E19/'absolute - all packaging'!E21</f>
+        <f>'absolute - all packaging'!E20/'absolute - all packaging'!E22</f>
         <v>0.99890653796380646</v>
       </c>
       <c r="F13" s="50">
-        <f>'absolute - all packaging'!F19/'absolute - all packaging'!F21</f>
+        <f>'absolute - all packaging'!F20/'absolute - all packaging'!F22</f>
         <v>0.99894225344114973</v>
       </c>
       <c r="G13" s="50">
-        <f>'absolute - all packaging'!G19/'absolute - all packaging'!G21</f>
+        <f>'absolute - all packaging'!G20/'absolute - all packaging'!G22</f>
         <v>0.99932925945337159</v>
       </c>
       <c r="H13" s="50">
-        <f>'absolute - all packaging'!H19/'absolute - all packaging'!H21</f>
+        <f>'absolute - all packaging'!H20/'absolute - all packaging'!H22</f>
         <v>0.99031475128380109</v>
       </c>
       <c r="I13" s="50">
-        <f>'absolute - all packaging'!I19/'absolute - all packaging'!I21</f>
+        <f>'absolute - all packaging'!I20/'absolute - all packaging'!I22</f>
         <v>0.98413472107992683</v>
       </c>
       <c r="J13" s="50">
-        <f>'absolute - all packaging'!J19/'absolute - all packaging'!J21</f>
+        <f>'absolute - all packaging'!J20/'absolute - all packaging'!J22</f>
         <v>0.91833991982889274</v>
       </c>
       <c r="K13" s="50">
-        <f>'absolute - all packaging'!K19/'absolute - all packaging'!K21</f>
+        <f>'absolute - all packaging'!K20/'absolute - all packaging'!K22</f>
         <v>0.92768395993442176</v>
       </c>
       <c r="L13" s="50">
-        <f>'absolute - all packaging'!L19/'absolute - all packaging'!L21</f>
+        <f>'absolute - all packaging'!L20/'absolute - all packaging'!L22</f>
         <v>0.95013026953593882</v>
       </c>
       <c r="M13" s="50">
-        <f>'absolute - all packaging'!M19/'absolute - all packaging'!M21</f>
+        <f>'absolute - all packaging'!M20/'absolute - all packaging'!M22</f>
         <v>0.95454917279998919</v>
       </c>
     </row>
@@ -3915,43 +5203,43 @@
         <v>1.2789060340778133E-3</v>
       </c>
       <c r="D14" s="50">
-        <f>'absolute - all packaging'!D20/'absolute - all packaging'!D21</f>
+        <f>'absolute - all packaging'!D21/'absolute - all packaging'!D22</f>
         <v>1.2789060340778133E-3</v>
       </c>
       <c r="E14" s="50">
-        <f>'absolute - all packaging'!E20/'absolute - all packaging'!E21</f>
+        <f>'absolute - all packaging'!E21/'absolute - all packaging'!E22</f>
         <v>1.0934620361935168E-3</v>
       </c>
       <c r="F14" s="50">
-        <f>'absolute - all packaging'!F20/'absolute - all packaging'!F21</f>
+        <f>'absolute - all packaging'!F21/'absolute - all packaging'!F22</f>
         <v>1.0577465588502506E-3</v>
       </c>
       <c r="G14" s="50">
-        <f>'absolute - all packaging'!G20/'absolute - all packaging'!G21</f>
+        <f>'absolute - all packaging'!G21/'absolute - all packaging'!G22</f>
         <v>6.7074054662839052E-4</v>
       </c>
       <c r="H14" s="50">
-        <f>'absolute - all packaging'!H20/'absolute - all packaging'!H21</f>
+        <f>'absolute - all packaging'!H21/'absolute - all packaging'!H22</f>
         <v>9.6852487161988698E-3</v>
       </c>
       <c r="I14" s="50">
-        <f>'absolute - all packaging'!I20/'absolute - all packaging'!I21</f>
+        <f>'absolute - all packaging'!I21/'absolute - all packaging'!I22</f>
         <v>1.5865278920073111E-2</v>
       </c>
       <c r="J14" s="50">
-        <f>'absolute - all packaging'!J20/'absolute - all packaging'!J21</f>
+        <f>'absolute - all packaging'!J21/'absolute - all packaging'!J22</f>
         <v>8.1660080171107277E-2</v>
       </c>
       <c r="K14" s="50">
-        <f>'absolute - all packaging'!K20/'absolute - all packaging'!K21</f>
+        <f>'absolute - all packaging'!K21/'absolute - all packaging'!K22</f>
         <v>7.2316040065578277E-2</v>
       </c>
       <c r="L14" s="50">
-        <f>'absolute - all packaging'!L20/'absolute - all packaging'!L21</f>
+        <f>'absolute - all packaging'!L21/'absolute - all packaging'!L22</f>
         <v>4.9869730464061138E-2</v>
       </c>
       <c r="M14" s="50">
-        <f>'absolute - all packaging'!M20/'absolute - all packaging'!M21</f>
+        <f>'absolute - all packaging'!M21/'absolute - all packaging'!M22</f>
         <v>4.5450827200010813E-2</v>
       </c>
     </row>
@@ -3966,43 +5254,43 @@
         <v>0.13834481474711646</v>
       </c>
       <c r="D15" s="50">
-        <f>'absolute - all packaging'!D22/'absolute - all packaging'!D26</f>
+        <f>'absolute - all packaging'!D23/'absolute - all packaging'!D27</f>
         <v>0.13834481474711646</v>
       </c>
       <c r="E15" s="50">
-        <f>'absolute - all packaging'!E22/'absolute - all packaging'!E26</f>
+        <f>'absolute - all packaging'!E23/'absolute - all packaging'!E27</f>
         <v>0.15137437503803058</v>
       </c>
       <c r="F15" s="50">
-        <f>'absolute - all packaging'!F22/'absolute - all packaging'!F26</f>
+        <f>'absolute - all packaging'!F23/'absolute - all packaging'!F27</f>
         <v>0.13017354816184931</v>
       </c>
       <c r="G15" s="50">
-        <f>'absolute - all packaging'!G22/'absolute - all packaging'!G26</f>
+        <f>'absolute - all packaging'!G23/'absolute - all packaging'!G27</f>
         <v>0.14063042341723833</v>
       </c>
       <c r="H15" s="50">
-        <f>'absolute - all packaging'!H22/'absolute - all packaging'!H26</f>
+        <f>'absolute - all packaging'!H23/'absolute - all packaging'!H27</f>
         <v>0.16040223495123077</v>
       </c>
       <c r="I15" s="50">
-        <f>'absolute - all packaging'!I22/'absolute - all packaging'!I26</f>
+        <f>'absolute - all packaging'!I23/'absolute - all packaging'!I27</f>
         <v>0.18453439873381855</v>
       </c>
       <c r="J15" s="50">
-        <f>'absolute - all packaging'!J22/'absolute - all packaging'!J26</f>
+        <f>'absolute - all packaging'!J23/'absolute - all packaging'!J27</f>
         <v>0.22984537678247038</v>
       </c>
       <c r="K15" s="50">
-        <f>'absolute - all packaging'!K22/'absolute - all packaging'!K26</f>
+        <f>'absolute - all packaging'!K23/'absolute - all packaging'!K27</f>
         <v>0.24606258654159524</v>
       </c>
       <c r="L15" s="50">
-        <f>'absolute - all packaging'!L22/'absolute - all packaging'!L26</f>
+        <f>'absolute - all packaging'!L23/'absolute - all packaging'!L27</f>
         <v>0.23703331808450301</v>
       </c>
       <c r="M15" s="50">
-        <f>'absolute - all packaging'!M22/'absolute - all packaging'!M26</f>
+        <f>'absolute - all packaging'!M23/'absolute - all packaging'!M27</f>
         <v>0.22883065765632055</v>
       </c>
     </row>
@@ -4017,43 +5305,43 @@
         <v>0.67504460122039889</v>
       </c>
       <c r="D16" s="50">
-        <f>'absolute - all packaging'!D23/'absolute - all packaging'!D26</f>
+        <f>'absolute - all packaging'!D24/'absolute - all packaging'!D27</f>
         <v>0.67504460122039889</v>
       </c>
       <c r="E16" s="50">
-        <f>'absolute - all packaging'!E23/'absolute - all packaging'!E26</f>
+        <f>'absolute - all packaging'!E24/'absolute - all packaging'!E27</f>
         <v>0.66126355848890583</v>
       </c>
       <c r="F16" s="50">
-        <f>'absolute - all packaging'!F23/'absolute - all packaging'!F26</f>
+        <f>'absolute - all packaging'!F24/'absolute - all packaging'!F27</f>
         <v>0.51084232719171851</v>
       </c>
       <c r="G16" s="50">
-        <f>'absolute - all packaging'!G23/'absolute - all packaging'!G26</f>
+        <f>'absolute - all packaging'!G24/'absolute - all packaging'!G27</f>
         <v>0.4935566125616952</v>
       </c>
       <c r="H16" s="50">
-        <f>'absolute - all packaging'!H23/'absolute - all packaging'!H26</f>
+        <f>'absolute - all packaging'!H24/'absolute - all packaging'!H27</f>
         <v>0.50540764028732565</v>
       </c>
       <c r="I16" s="50">
-        <f>'absolute - all packaging'!I23/'absolute - all packaging'!I26</f>
+        <f>'absolute - all packaging'!I24/'absolute - all packaging'!I27</f>
         <v>0.52010353712968815</v>
       </c>
       <c r="J16" s="50">
-        <f>'absolute - all packaging'!J23/'absolute - all packaging'!J26</f>
+        <f>'absolute - all packaging'!J24/'absolute - all packaging'!J27</f>
         <v>0.58104906825178537</v>
       </c>
       <c r="K16" s="50">
-        <f>'absolute - all packaging'!K23/'absolute - all packaging'!K26</f>
+        <f>'absolute - all packaging'!K24/'absolute - all packaging'!K27</f>
         <v>0.5993148091404964</v>
       </c>
       <c r="L16" s="50">
-        <f>'absolute - all packaging'!L23/'absolute - all packaging'!L26</f>
+        <f>'absolute - all packaging'!L24/'absolute - all packaging'!L27</f>
         <v>0.57194103788608908</v>
       </c>
       <c r="M16" s="50">
-        <f>'absolute - all packaging'!M23/'absolute - all packaging'!M26</f>
+        <f>'absolute - all packaging'!M24/'absolute - all packaging'!M27</f>
         <v>0.55742105543129594</v>
       </c>
     </row>
@@ -4068,43 +5356,43 @@
         <v>0.18661058403248473</v>
       </c>
       <c r="D17" s="50">
-        <f>'absolute - all packaging'!D24/'absolute - all packaging'!D26</f>
+        <f>'absolute - all packaging'!D25/'absolute - all packaging'!D27</f>
         <v>0.18661058403248473</v>
       </c>
       <c r="E17" s="50">
-        <f>'absolute - all packaging'!E24/'absolute - all packaging'!E26</f>
+        <f>'absolute - all packaging'!E25/'absolute - all packaging'!E27</f>
         <v>0.1873620664730635</v>
       </c>
       <c r="F17" s="50">
-        <f>'absolute - all packaging'!F24/'absolute - all packaging'!F26</f>
+        <f>'absolute - all packaging'!F25/'absolute - all packaging'!F27</f>
         <v>0.35898412464643226</v>
       </c>
       <c r="G17" s="50">
-        <f>'absolute - all packaging'!G24/'absolute - all packaging'!G26</f>
+        <f>'absolute - all packaging'!G25/'absolute - all packaging'!G27</f>
         <v>0.3658129640210665</v>
       </c>
       <c r="H17" s="50">
-        <f>'absolute - all packaging'!H24/'absolute - all packaging'!H26</f>
+        <f>'absolute - all packaging'!H25/'absolute - all packaging'!H27</f>
         <v>0.33419012476144366</v>
       </c>
       <c r="I17" s="50">
-        <f>'absolute - all packaging'!I24/'absolute - all packaging'!I26</f>
+        <f>'absolute - all packaging'!I25/'absolute - all packaging'!I27</f>
         <v>0.2953620641364933</v>
       </c>
       <c r="J17" s="50">
-        <f>'absolute - all packaging'!J24/'absolute - all packaging'!J26</f>
+        <f>'absolute - all packaging'!J25/'absolute - all packaging'!J27</f>
         <v>0.18910555496574427</v>
       </c>
       <c r="K17" s="50">
-        <f>'absolute - all packaging'!K24/'absolute - all packaging'!K26</f>
+        <f>'absolute - all packaging'!K25/'absolute - all packaging'!K27</f>
         <v>0.15462260431790834</v>
       </c>
       <c r="L17" s="50">
-        <f>'absolute - all packaging'!L24/'absolute - all packaging'!L26</f>
+        <f>'absolute - all packaging'!L25/'absolute - all packaging'!L27</f>
         <v>0.19102564402940789</v>
       </c>
       <c r="M17" s="50">
-        <f>'absolute - all packaging'!M24/'absolute - all packaging'!M26</f>
+        <f>'absolute - all packaging'!M25/'absolute - all packaging'!M27</f>
         <v>0.21374828691238354</v>
       </c>
     </row>
@@ -4131,7 +5419,775 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CEF9F2-FADD-5340-9B17-B47CE52A5CF3}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39">
+        <v>2014</v>
+      </c>
+      <c r="C1" s="40">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="40">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="40">
+        <v>2017</v>
+      </c>
+      <c r="F1" s="40">
+        <v>2018</v>
+      </c>
+      <c r="G1" s="40">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="40">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="40">
+        <v>2021</v>
+      </c>
+      <c r="J1" s="40">
+        <v>2022</v>
+      </c>
+      <c r="K1" s="41">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34">
+        <f>absolute_pet!B3/absolute_pet!B2</f>
+        <v>0.37815296447692337</v>
+      </c>
+      <c r="C2" s="34">
+        <f>absolute_pet!C3/absolute_pet!C2</f>
+        <v>0.3842044648588645</v>
+      </c>
+      <c r="D2" s="34">
+        <f>absolute_pet!D3/absolute_pet!D2</f>
+        <v>0.38858322333657053</v>
+      </c>
+      <c r="E2" s="34">
+        <f>absolute_pet!E3/absolute_pet!E2</f>
+        <v>0.3680900155984283</v>
+      </c>
+      <c r="F2" s="34">
+        <f>absolute_pet!F3/absolute_pet!F2</f>
+        <v>0.35743151575244775</v>
+      </c>
+      <c r="G2" s="34">
+        <f>absolute_pet!G3/absolute_pet!G2</f>
+        <v>0.37773705285857251</v>
+      </c>
+      <c r="H2" s="34">
+        <f>absolute_pet!H3/absolute_pet!H2</f>
+        <v>0.40776994347056866</v>
+      </c>
+      <c r="I2" s="34">
+        <f>absolute_pet!I3/absolute_pet!I2</f>
+        <v>0.41340756093162356</v>
+      </c>
+      <c r="J2" s="34">
+        <f>absolute_pet!J3/absolute_pet!J2</f>
+        <v>0.39195491751029082</v>
+      </c>
+      <c r="K2" s="34">
+        <f>absolute_pet!K3/absolute_pet!K2</f>
+        <v>0.39195497795318335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="34">
+        <f>absolute_pet!B4/absolute_pet!B2</f>
+        <v>0.57584689940680411</v>
+      </c>
+      <c r="C3" s="34">
+        <f>absolute_pet!C4/absolute_pet!C2</f>
+        <v>0.56979547027517241</v>
+      </c>
+      <c r="D3" s="34">
+        <f>absolute_pet!D4/absolute_pet!D2</f>
+        <v>0.56541686478322839</v>
+      </c>
+      <c r="E3" s="34">
+        <f>absolute_pet!E4/absolute_pet!E2</f>
+        <v>0.58591007252137062</v>
+      </c>
+      <c r="F3" s="34">
+        <f>absolute_pet!F4/absolute_pet!F2</f>
+        <v>0.59656837652690831</v>
+      </c>
+      <c r="G3" s="34">
+        <f>absolute_pet!G4/absolute_pet!G2</f>
+        <v>0.57626295157371699</v>
+      </c>
+      <c r="H3" s="34">
+        <f>absolute_pet!H4/absolute_pet!H2</f>
+        <v>0.5462300303348866</v>
+      </c>
+      <c r="I3" s="34">
+        <f>absolute_pet!I4/absolute_pet!I2</f>
+        <v>0.54059244126099948</v>
+      </c>
+      <c r="J3" s="34">
+        <f>absolute_pet!J4/absolute_pet!J2</f>
+        <v>0.56204504782988529</v>
+      </c>
+      <c r="K3" s="34">
+        <f>absolute_pet!K4/absolute_pet!K2</f>
+        <v>0.56204503032430253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34">
+        <f>absolute_pet!B5/absolute_pet!B2</f>
+        <v>3.9999993770422307E-2</v>
+      </c>
+      <c r="C4" s="34">
+        <f>absolute_pet!C5/absolute_pet!C2</f>
+        <v>4.0000009179145715E-2</v>
+      </c>
+      <c r="D4" s="34">
+        <f>absolute_pet!D5/absolute_pet!D2</f>
+        <v>4.0000009179145715E-2</v>
+      </c>
+      <c r="E4" s="34">
+        <f>absolute_pet!E5/absolute_pet!E2</f>
+        <v>4.0000009179145715E-2</v>
+      </c>
+      <c r="F4" s="34">
+        <f>absolute_pet!F5/absolute_pet!F2</f>
+        <v>3.9999997172686506E-2</v>
+      </c>
+      <c r="G4" s="34">
+        <f>absolute_pet!G5/absolute_pet!G2</f>
+        <v>4.0000005214458283E-2</v>
+      </c>
+      <c r="H4" s="34">
+        <f>absolute_pet!H5/absolute_pet!H2</f>
+        <v>4.0000005345825457E-2</v>
+      </c>
+      <c r="I4" s="34">
+        <f>absolute_pet!I5/absolute_pet!I2</f>
+        <v>3.9999994518442425E-2</v>
+      </c>
+      <c r="J4" s="34">
+        <f>absolute_pet!J5/absolute_pet!J2</f>
+        <v>4.0000002686808055E-2</v>
+      </c>
+      <c r="K4" s="34">
+        <f>absolute_pet!K5/absolute_pet!K2</f>
+        <v>4.0000002670156742E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="34">
+        <f>absolute_pet!B6/absolute_pet!B2</f>
+        <v>5.9999990655633471E-3</v>
+      </c>
+      <c r="C5" s="34">
+        <f>absolute_pet!C6/absolute_pet!C2</f>
+        <v>6.0000006119430484E-3</v>
+      </c>
+      <c r="D5" s="34">
+        <f>absolute_pet!D6/absolute_pet!D2</f>
+        <v>6.0000006119430484E-3</v>
+      </c>
+      <c r="E5" s="34">
+        <f>absolute_pet!E6/absolute_pet!E2</f>
+        <v>6.0000006119430484E-3</v>
+      </c>
+      <c r="F5" s="34">
+        <f>absolute_pet!F6/absolute_pet!F2</f>
+        <v>6.000000282731348E-3</v>
+      </c>
+      <c r="G5" s="34">
+        <f>absolute_pet!G6/absolute_pet!G2</f>
+        <v>5.9999994785541718E-3</v>
+      </c>
+      <c r="H5" s="34">
+        <f>absolute_pet!H6/absolute_pet!H2</f>
+        <v>5.9999994654174544E-3</v>
+      </c>
+      <c r="I5" s="34">
+        <f>absolute_pet!I6/absolute_pet!I2</f>
+        <v>6.0000005481557579E-3</v>
+      </c>
+      <c r="J5" s="34">
+        <f>absolute_pet!J6/absolute_pet!J2</f>
+        <v>5.9999997313191942E-3</v>
+      </c>
+      <c r="K5" s="34">
+        <f>absolute_pet!K6/absolute_pet!K2</f>
+        <v>5.9999997329843267E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="61">
+        <v>0</v>
+      </c>
+      <c r="C6" s="62">
+        <v>0</v>
+      </c>
+      <c r="D6" s="62">
+        <v>0</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0</v>
+      </c>
+      <c r="F6" s="62">
+        <v>0</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
+      <c r="I6" s="62">
+        <v>0</v>
+      </c>
+      <c r="J6" s="62">
+        <v>0</v>
+      </c>
+      <c r="K6" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="64">
+        <f>0.994</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C7" s="64">
+        <f t="shared" ref="C7:K7" si="0">0.994</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="61">
+        <v>5.9999990655633471E-3</v>
+      </c>
+      <c r="C8" s="61">
+        <v>6.0000006119430484E-3</v>
+      </c>
+      <c r="D8" s="61">
+        <v>6.0000006119430484E-3</v>
+      </c>
+      <c r="E8" s="61">
+        <v>6.0000006119430484E-3</v>
+      </c>
+      <c r="F8" s="61">
+        <v>6.000000282731348E-3</v>
+      </c>
+      <c r="G8" s="61">
+        <v>5.9999994785541718E-3</v>
+      </c>
+      <c r="H8" s="61">
+        <v>5.9999994654174544E-3</v>
+      </c>
+      <c r="I8" s="61">
+        <v>6.0000005481557579E-3</v>
+      </c>
+      <c r="J8" s="61">
+        <v>5.9999997313191942E-3</v>
+      </c>
+      <c r="K8" s="61">
+        <v>5.9999997329843267E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="61">
+        <f>absolute_pet!B10/absolute_pet!B14</f>
+        <v>0.45776056771442541</v>
+      </c>
+      <c r="C9" s="61">
+        <f>absolute_pet!C10/absolute_pet!C14</f>
+        <v>0.47370857717779419</v>
+      </c>
+      <c r="D9" s="61">
+        <f>absolute_pet!D10/absolute_pet!D14</f>
+        <v>0.53420345981919137</v>
+      </c>
+      <c r="E9" s="61">
+        <f>absolute_pet!E10/absolute_pet!E14</f>
+        <v>0.55229538757592156</v>
+      </c>
+      <c r="F9" s="61">
+        <f>absolute_pet!F10/absolute_pet!F14</f>
+        <v>0.51087478380239859</v>
+      </c>
+      <c r="G9" s="61">
+        <f>absolute_pet!G10/absolute_pet!G14</f>
+        <v>0.51581432046562825</v>
+      </c>
+      <c r="H9" s="61">
+        <f>absolute_pet!H10/absolute_pet!H14</f>
+        <v>0.62636377390631914</v>
+      </c>
+      <c r="I9" s="61">
+        <f>absolute_pet!I10/absolute_pet!I14</f>
+        <v>0.60805484430494761</v>
+      </c>
+      <c r="J9" s="61">
+        <f>absolute_pet!J10/absolute_pet!J14</f>
+        <v>0.61478437308443457</v>
+      </c>
+      <c r="K9" s="61">
+        <f>absolute_pet!K10/absolute_pet!K14</f>
+        <v>0.66600369903471313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="61">
+        <f>absolute_pet!B11/absolute_pet!B14</f>
+        <v>0.54223943228557459</v>
+      </c>
+      <c r="C10" s="61">
+        <f>absolute_pet!C11/absolute_pet!C14</f>
+        <v>0.52629142282220587</v>
+      </c>
+      <c r="D10" s="61">
+        <f>absolute_pet!D11/absolute_pet!D14</f>
+        <v>0.46579654018080868</v>
+      </c>
+      <c r="E10" s="61">
+        <f>absolute_pet!E11/absolute_pet!E14</f>
+        <v>0.44770461242407844</v>
+      </c>
+      <c r="F10" s="61">
+        <f>absolute_pet!F11/absolute_pet!F14</f>
+        <v>0.48912521619760135</v>
+      </c>
+      <c r="G10" s="61">
+        <f>absolute_pet!G11/absolute_pet!G14</f>
+        <v>0.48418567953437186</v>
+      </c>
+      <c r="H10" s="61">
+        <f>absolute_pet!H11/absolute_pet!H14</f>
+        <v>0.37363622609368086</v>
+      </c>
+      <c r="I10" s="61">
+        <f>absolute_pet!I11/absolute_pet!I14</f>
+        <v>0.39194515569505239</v>
+      </c>
+      <c r="J10" s="61">
+        <f>absolute_pet!J11/absolute_pet!J14</f>
+        <v>0.38521562691556532</v>
+      </c>
+      <c r="K10" s="67">
+        <f>absolute_pet!K11/absolute_pet!K14</f>
+        <v>0.33399630096528682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="61">
+        <v>0</v>
+      </c>
+      <c r="C11" s="62">
+        <v>0</v>
+      </c>
+      <c r="D11" s="62">
+        <v>0</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0</v>
+      </c>
+      <c r="F11" s="62">
+        <v>0</v>
+      </c>
+      <c r="G11" s="62">
+        <v>0</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0</v>
+      </c>
+      <c r="I11" s="62">
+        <v>0</v>
+      </c>
+      <c r="J11" s="62">
+        <v>0</v>
+      </c>
+      <c r="K11" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="34">
+        <f>absolute_pet!B15/absolute_pet!B18</f>
+        <v>0.54807378100493298</v>
+      </c>
+      <c r="C12" s="34">
+        <f>absolute_pet!C15/absolute_pet!C18</f>
+        <v>0.56589408607497782</v>
+      </c>
+      <c r="D12" s="34">
+        <f>absolute_pet!D15/absolute_pet!D18</f>
+        <v>0.60240921539507863</v>
+      </c>
+      <c r="E12" s="34">
+        <f>absolute_pet!E15/absolute_pet!E18</f>
+        <v>0.58704418469243902</v>
+      </c>
+      <c r="F12" s="34">
+        <f>absolute_pet!F15/absolute_pet!F18</f>
+        <v>0.56403792336831515</v>
+      </c>
+      <c r="G12" s="34">
+        <f>absolute_pet!G15/absolute_pet!G18</f>
+        <v>0.52503550861193948</v>
+      </c>
+      <c r="H12" s="34">
+        <f>absolute_pet!H15/absolute_pet!H18</f>
+        <v>0.55766462773288117</v>
+      </c>
+      <c r="I12" s="34">
+        <f>absolute_pet!I15/absolute_pet!I18</f>
+        <v>0.42238231763238165</v>
+      </c>
+      <c r="J12" s="34">
+        <f>absolute_pet!J15/absolute_pet!J18</f>
+        <v>0.3818001595352063</v>
+      </c>
+      <c r="K12" s="34">
+        <f>absolute_pet!K15/absolute_pet!K18</f>
+        <v>0.46626560016594981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="34">
+        <f>absolute_pet!B16/absolute_pet!B18</f>
+        <v>0.34901102003344509</v>
+      </c>
+      <c r="C13" s="34">
+        <f>absolute_pet!C16/absolute_pet!C18</f>
+        <v>0.33119071530230632</v>
+      </c>
+      <c r="D13" s="34">
+        <f>absolute_pet!D16/absolute_pet!D18</f>
+        <v>0.29467556925595195</v>
+      </c>
+      <c r="E13" s="34">
+        <f>absolute_pet!E16/absolute_pet!E18</f>
+        <v>0.31004060137761824</v>
+      </c>
+      <c r="F13" s="34">
+        <f>absolute_pet!F16/absolute_pet!F18</f>
+        <v>0.33304686482312978</v>
+      </c>
+      <c r="G13" s="34">
+        <f>absolute_pet!G16/absolute_pet!G18</f>
+        <v>0.37204929494725336</v>
+      </c>
+      <c r="H13" s="34">
+        <f>absolute_pet!H16/absolute_pet!H18</f>
+        <v>0.33942016484132403</v>
+      </c>
+      <c r="I13" s="34">
+        <f>absolute_pet!I16/absolute_pet!I18</f>
+        <v>0.47470247801453425</v>
+      </c>
+      <c r="J13" s="34">
+        <f>absolute_pet!J16/absolute_pet!J18</f>
+        <v>0.51528462947576137</v>
+      </c>
+      <c r="K13" s="34">
+        <f>absolute_pet!K16/absolute_pet!K18</f>
+        <v>0.43081918053054485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="65">
+        <f>absolute_pet!B17/absolute_pet!B18</f>
+        <v>0.10291519896162213</v>
+      </c>
+      <c r="C14" s="34">
+        <f>absolute_pet!C17/absolute_pet!C18</f>
+        <v>0.10291519862271586</v>
+      </c>
+      <c r="D14" s="34">
+        <f>absolute_pet!D17/absolute_pet!D18</f>
+        <v>0.10291521534896945</v>
+      </c>
+      <c r="E14" s="34">
+        <f>absolute_pet!E17/absolute_pet!E18</f>
+        <v>0.10291521392994293</v>
+      </c>
+      <c r="F14" s="34">
+        <f>absolute_pet!F17/absolute_pet!F18</f>
+        <v>0.1029152118085551</v>
+      </c>
+      <c r="G14" s="34">
+        <f>absolute_pet!G17/absolute_pet!G18</f>
+        <v>0.10291519644080721</v>
+      </c>
+      <c r="H14" s="34">
+        <f>absolute_pet!H17/absolute_pet!H18</f>
+        <v>0.10291520742579488</v>
+      </c>
+      <c r="I14" s="34">
+        <f>absolute_pet!I17/absolute_pet!I18</f>
+        <v>0.10291520435308406</v>
+      </c>
+      <c r="J14" s="34">
+        <f>absolute_pet!J17/absolute_pet!J18</f>
+        <v>0.10291521098903239</v>
+      </c>
+      <c r="K14" s="34">
+        <f>absolute_pet!K17/absolute_pet!K18</f>
+        <v>0.10291521930350522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="34">
+        <v>1</v>
+      </c>
+      <c r="F16" s="34">
+        <v>1</v>
+      </c>
+      <c r="G16" s="34">
+        <v>1</v>
+      </c>
+      <c r="H16" s="34">
+        <v>1</v>
+      </c>
+      <c r="I16" s="34">
+        <v>1</v>
+      </c>
+      <c r="J16" s="34">
+        <v>1</v>
+      </c>
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="34">
+        <f>absolute_pet!B23/absolute_pet!B22</f>
+        <v>0.55074528458099381</v>
+      </c>
+      <c r="C17" s="34">
+        <f>absolute_pet!C23/absolute_pet!C22</f>
+        <v>0.64334360080039321</v>
+      </c>
+      <c r="D17" s="34">
+        <f>absolute_pet!D23/absolute_pet!D22</f>
+        <v>0.71113273927417731</v>
+      </c>
+      <c r="E17" s="34">
+        <f>absolute_pet!E23/absolute_pet!E22</f>
+        <v>0.77146316215528876</v>
+      </c>
+      <c r="F17" s="34">
+        <f>absolute_pet!F23/absolute_pet!F22</f>
+        <v>0.80259297633329696</v>
+      </c>
+      <c r="G17" s="34">
+        <f>absolute_pet!G23/absolute_pet!G22</f>
+        <v>0.84284878106050642</v>
+      </c>
+      <c r="H17" s="34">
+        <f>absolute_pet!H23/absolute_pet!H22</f>
+        <v>0.86079254026815444</v>
+      </c>
+      <c r="I17" s="34">
+        <f>absolute_pet!I23/absolute_pet!I22</f>
+        <v>0.85457182899547601</v>
+      </c>
+      <c r="J17" s="34">
+        <f>absolute_pet!J23/absolute_pet!J22</f>
+        <v>0.87231261213442535</v>
+      </c>
+      <c r="K17" s="34">
+        <f>absolute_pet!K23/absolute_pet!K22</f>
+        <v>0.87231272678516059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="34">
+        <f>absolute_pet!B24/absolute_pet!B22</f>
+        <v>0.44925492616398965</v>
+      </c>
+      <c r="C18" s="34">
+        <f>absolute_pet!C24/absolute_pet!C22</f>
+        <v>0.3566565210807075</v>
+      </c>
+      <c r="D18" s="34">
+        <f>absolute_pet!D24/absolute_pet!D22</f>
+        <v>0.28886719187068727</v>
+      </c>
+      <c r="E18" s="34">
+        <f>absolute_pet!E24/absolute_pet!E22</f>
+        <v>0.22853683784471118</v>
+      </c>
+      <c r="F18" s="34">
+        <f>absolute_pet!F24/absolute_pet!F22</f>
+        <v>0.19740705396202179</v>
+      </c>
+      <c r="G18" s="34">
+        <f>absolute_pet!G24/absolute_pet!G22</f>
+        <v>0.15715113427327884</v>
+      </c>
+      <c r="H18" s="34">
+        <f>absolute_pet!H24/absolute_pet!H22</f>
+        <v>0.13920727226371518</v>
+      </c>
+      <c r="I18" s="34">
+        <f>absolute_pet!I24/absolute_pet!I22</f>
+        <v>0.14542820765421458</v>
+      </c>
+      <c r="J18" s="34">
+        <f>absolute_pet!J24/absolute_pet!J22</f>
+        <v>0.12768727819865505</v>
+      </c>
+      <c r="K18" s="34">
+        <f>absolute_pet!K24/absolute_pet!K22</f>
+        <v>0.12768731511510001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4C449D-727B-864D-AFE2-C1A982264ADE}">
   <dimension ref="B1:W20"/>
   <sheetViews>
